--- a/ClassWork.xlsx
+++ b/ClassWork.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\AEC MCA Project Guidance 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73440965-4A99-4E19-8BA0-6FE98B1FC5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E6475-2248-4E13-8261-40EF97BEAFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation &amp; Regression-1" sheetId="1" r:id="rId1"/>
     <sheet name="Correlation &amp; Regression-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Decision Tree" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="115">
   <si>
     <t>Student</t>
   </si>
@@ -181,6 +182,267 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Epsilon^2</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Outlook X[0]</t>
+  </si>
+  <si>
+    <t>Temperature X[1]</t>
+  </si>
+  <si>
+    <t>Humidity X[2]</t>
+  </si>
+  <si>
+    <t>Wind X[3]</t>
+  </si>
+  <si>
+    <t>Play y</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sunny - 2</t>
+  </si>
+  <si>
+    <t>Hot - 1</t>
+  </si>
+  <si>
+    <t>High - 0</t>
+  </si>
+  <si>
+    <t>Weak - 1</t>
+  </si>
+  <si>
+    <t>No - 0</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Strong - 0</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Overcast - 0</t>
+  </si>
+  <si>
+    <t>Yes - 1</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Rain - 1</t>
+  </si>
+  <si>
+    <t>Mild - 2</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Cool - 0</t>
+  </si>
+  <si>
+    <t>Normal - 1</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p + n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Gain I(p,n) </t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Yes Count (p) =</t>
+  </si>
+  <si>
+    <t>No Count (n) =</t>
+  </si>
+  <si>
+    <t>Total rows =</t>
+  </si>
+  <si>
+    <t>Sunny-Temp</t>
+  </si>
+  <si>
+    <t>Sunny-Humd</t>
+  </si>
+  <si>
+    <t>Sunny-Wind</t>
+  </si>
+  <si>
+    <t>Rain-Temp</t>
+  </si>
+  <si>
+    <t>Rain-Humd.</t>
+  </si>
+  <si>
+    <t>Rain-Wind</t>
+  </si>
+  <si>
+    <t>Gini Index</t>
+  </si>
+  <si>
+    <t>Algo / Split Criterion</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tree Type</t>
+  </si>
+  <si>
+    <t>Gini Split / Gini Index</t>
+  </si>
+  <si>
+    <t>Favours larger partitions. Very simple to implement.</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>Information Gain / Entropy</t>
+  </si>
+  <si>
+    <t>Favours partitions that have small counts but many distinct values.</t>
+  </si>
+  <si>
+    <t> ID3 / C4.5</t>
+  </si>
+  <si>
+    <t>gini = 0.392</t>
+  </si>
+  <si>
+    <t>Classification &amp; Regression Trees (CART)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Favours larger partitions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Uses squared proportion of classes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Perfectly classified, Gini Index would be zero.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -190,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -214,16 +476,102 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,11 +614,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,24 +742,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DCE96155-F8A9-49BE-804E-8124D67109A9}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1619,16 +2186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13448</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>31378</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>282388</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1656,10 +2223,499 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>162360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEE4D89-25BD-46CE-AF39-D470D94A9C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5149849" y="63500"/>
+          <a:ext cx="8296711" cy="1570566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410633</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>109009</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>225426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E39918B-40D1-43B3-A26E-271363E1EF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11256433" y="2590801"/>
+          <a:ext cx="4117976" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619127</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876225A4-8659-4090-8604-9101FB63E827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11055351" y="5985934"/>
+          <a:ext cx="4879976" cy="2215303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B2AADB-2AE5-40D8-A99E-7689D059B526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11118849" y="9790006"/>
+          <a:ext cx="4860926" cy="2215938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16932</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>68471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA179DE-8B1F-480C-A796-CBA4354DD7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7732606" y="12330430"/>
+          <a:ext cx="5619326" cy="2162701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>148982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Gini Index Calculation">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC7FCBD-CC6B-4992-BCF8-789D6DD814C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="12115800"/>
+          <a:ext cx="2922270" cy="865262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1697,7 +2753,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1803,7 +2859,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1945,7 +3001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1955,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB931C2-662A-49A8-808B-038E18833AAE}">
   <dimension ref="A3:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1991,15 +3047,15 @@
       <c r="D4" s="3">
         <v>82</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>C4*D4</f>
         <v>492</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>C4^2</f>
         <v>36</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>D4^2</f>
         <v>6724</v>
       </c>
@@ -2014,15 +3070,15 @@
       <c r="D5" s="3">
         <v>86</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E10" si="0">C5*D5</f>
         <v>172</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F10" si="1">C5^2</f>
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G10" si="2">D5^2</f>
         <v>7396</v>
       </c>
@@ -2037,15 +3093,15 @@
       <c r="D6" s="3">
         <v>43</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
@@ -2060,15 +3116,15 @@
       <c r="D7" s="3">
         <v>74</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>5476</v>
       </c>
@@ -2083,15 +3139,15 @@
       <c r="D8" s="3">
         <v>58</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>3364</v>
       </c>
@@ -2106,15 +3162,15 @@
       <c r="D9" s="3">
         <v>90</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
@@ -2129,15 +3185,15 @@
       <c r="D10" s="3">
         <v>78</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
@@ -2304,26 +3360,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A35E366-F9A4-445A-AA33-35E89877705D}">
-  <dimension ref="B3:O21"/>
+  <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2336,11 +3394,17 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +3417,16 @@
       <c r="E4" s="3">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <f>$I$19+$I$20*C4+$I$21*D4</f>
+        <v>555.36373267414149</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(E4-F4)^2</f>
+        <v>28.769628199652999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2367,12 +3439,20 @@
       <c r="E5" s="3">
         <v>570</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F8" si="0">$I$19+$I$20*C5+$I$21*D5</f>
+        <v>584.20852829522391</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G8" si="1">(E5-F5)^2</f>
+        <v>201.88227631617858</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2385,14 +3465,22 @@
       <c r="E6" s="3">
         <v>525</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>523.08157499779293</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6803544890932072</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6">
         <v>0.98928820282730667</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2405,14 +3493,22 @@
       <c r="E7" s="3">
         <v>670</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>660.08960889909076</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>98.215851772980997</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7">
         <v>0.97869114825328229</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2425,22 +3521,34 @@
       <c r="E8" s="3">
         <v>490</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>482.25655513375125</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>59.960938396634141</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8">
         <v>0.95738229650656459</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G9" s="6" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="11">
+        <f>SUM(G4:G8)</f>
+        <v>392.50904917453994</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9">
         <v>14.009087214635695</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,29 +3561,31 @@
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="9"/>
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="3">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <f>$H$19+$H$20*C11+$H$21*D11</f>
+        <f>$I$19+$I$20*C11+$I$21*D11</f>
         <v>581.43462523174719</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2486,14 +3596,15 @@
         <v>23</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E13" si="0">$H$19+$H$20*C12+$H$21*D12</f>
+        <f t="shared" ref="E12:E13" si="2">$I$19+$I$20*C12+$I$21*D12</f>
         <v>561.132691798358</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="1"/>
+      <c r="H12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2504,192 +3615,2204 @@
         <v>27</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>636.79261940496167</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="F13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="6" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14">
         <v>18027.49095082546</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14">
         <v>9013.7454754127302</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14">
         <v>45.928854350588743</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14">
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="6" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="10">
         <v>392.50904917453863</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15">
         <v>196.25452458726932</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="7" t="s">
+    </row>
+    <row r="16" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="5">
         <v>18420</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="7:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="8:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="6" t="s">
+    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19">
         <v>-44.81018804626126</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19">
         <v>69.246866630890381</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19">
         <v>-0.64710780756499753</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19">
         <v>0.58391574508017841</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19">
         <v>-342.75540778225883</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19">
         <v>253.13503168973631</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19">
         <v>-342.75540778225883</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19">
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="6" t="s">
+    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20">
         <v>87.640151849563026</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20">
         <v>15.237186664924886</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20">
         <v>5.7517279125618073</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20">
         <v>2.8922600815111749E-2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20">
         <v>22.079829052021836</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20">
         <v>153.20047464710422</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20">
         <v>22.079829052021836</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20">
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="21" spans="7:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="7" t="s">
+    <row r="21" spans="8:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="5">
         <v>14.532974309172776</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="5">
         <v>2.9137375361504319</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="5">
         <v>4.9877431061870565</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="5">
         <v>3.7924876930238542E-2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="5">
         <v>1.9961735454816427</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="5">
         <v>27.069775072863909</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="5">
         <v>1.9961735454816427</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="5">
         <v>27.069775072863909</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D45E3-1A8A-42B5-B91F-6FBACC6F6BB1}">
+  <dimension ref="B1:AC66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="12" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="12"/>
+    <col min="12" max="12" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="14"/>
+    <col min="15" max="19" width="8.88671875" style="12"/>
+    <col min="20" max="20" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="12"/>
+    <col min="25" max="25" width="15.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="X3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="X4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="X5" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="X6" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="X7" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="X8" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="X9" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="X10" s="17">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14">
+        <f>D19</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="14">
+        <f>D20</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="14">
+        <f>I11+J11</f>
+        <v>14</v>
+      </c>
+      <c r="L11" s="14">
+        <f>((-I11/K11)*LOG(I11/K11,2)-(J11/K11)*LOG(J11/K11,2))</f>
+        <v>0.94028595867063092</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="X11" s="17">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23">
+        <f>(K13/$K$11)*L13+(K14/$K$11)*L14+(K15/$K$11)*L15</f>
+        <v>0.69353613889619181</v>
+      </c>
+      <c r="N12" s="24">
+        <f>$L$11-M12</f>
+        <v>0.24674981977443911</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="X12" s="17">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>3</v>
+      </c>
+      <c r="K13" s="14">
+        <f>I13+J13</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="14">
+        <f>((-I13/K13)*LOG(I13/K13,2)-(J13/K13)*LOG(J13/K13,2))</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="X13" s="17">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f>I14+J14</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="X14" s="17">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+      <c r="J15" s="14">
+        <v>2</v>
+      </c>
+      <c r="K15" s="14">
+        <f>I15+J15</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="14">
+        <f>((-I15/K15)*LOG(I15/K15,2)-(J15/K15)*LOG(J15/K15,2))</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="X15" s="17">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="14">
+        <f>(K17/$K$11)*L17+(K18/$K$11)*L18+(K19/$K$11)*L19</f>
+        <v>0.91106339301167627</v>
+      </c>
+      <c r="N16" s="26">
+        <f>$L$11-M16</f>
+        <v>2.9222565658954647E-2</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="X16" s="17">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="14">
+        <v>2</v>
+      </c>
+      <c r="J17" s="14">
+        <v>2</v>
+      </c>
+      <c r="K17" s="14">
+        <f>I17+J17</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="14">
+        <f>((-I17/K17)*LOG(I17/K17,2)-(J17/K17)*LOG(J17/K17,2))</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="X17" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC17" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="14">
+        <v>4</v>
+      </c>
+      <c r="J18" s="14">
+        <v>2</v>
+      </c>
+      <c r="K18" s="14">
+        <f>I18+J18</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="14">
+        <f>((-I18/K18)*LOG(I18/K18,2)-(J18/K18)*LOG(J18/K18,2))</f>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="12">
+        <f>COUNTIF(G4:G17,"yes")</f>
+        <v>9</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <f>I19+J19</f>
+        <v>4</v>
+      </c>
+      <c r="L19" s="14">
+        <f>((-I19/K19)*LOG(I19/K19,2)-(J19/K19)*LOG(J19/K19,2))</f>
+        <v>0.81127812445913283</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="X19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12">
+        <f>COUNTIF(G4:G17,"no")</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="M20" s="14">
+        <f>(K21/$K$11)*L21+(K22/$K$11)*L22</f>
+        <v>0.78845045730828955</v>
+      </c>
+      <c r="N20" s="26">
+        <f>$L$11-M20</f>
+        <v>0.15183550136234136</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="X20" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="12">
+        <f>D19+D20</f>
+        <v>14</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="14">
+        <v>3</v>
+      </c>
+      <c r="J21" s="14">
+        <v>4</v>
+      </c>
+      <c r="K21" s="14">
+        <f>I21+J21</f>
+        <v>7</v>
+      </c>
+      <c r="L21" s="14">
+        <f>((-I21/K21)*LOG(I21/K21,2)-(J21/K21)*LOG(J21/K21,2))</f>
+        <v>0.98522813603425163</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="X21" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC21" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="14">
+        <v>6</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <f>I22+J22</f>
+        <v>7</v>
+      </c>
+      <c r="L22" s="14">
+        <f>((-I22/K22)*LOG(I22/K22,2)-(J22/K22)*LOG(J22/K22,2))</f>
+        <v>0.59167277858232747</v>
+      </c>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="14">
+        <f>(K24/$K$11)*L24+(K25/$K$11)*L25</f>
+        <v>0.89215892826236165</v>
+      </c>
+      <c r="N23" s="26">
+        <f>$L$11-M23</f>
+        <v>4.8127030408269267E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="H24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="14">
+        <v>3</v>
+      </c>
+      <c r="J24" s="14">
+        <v>3</v>
+      </c>
+      <c r="K24" s="14">
+        <f>I24+J24</f>
+        <v>6</v>
+      </c>
+      <c r="L24" s="14">
+        <f>((-I24/K24)*LOG(I24/K24,2)-(J24/K24)*LOG(J24/K24,2))</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="33">
+        <v>6</v>
+      </c>
+      <c r="J25" s="33">
+        <v>2</v>
+      </c>
+      <c r="K25" s="33">
+        <f>I25+J25</f>
+        <v>8</v>
+      </c>
+      <c r="L25" s="33">
+        <f>((-I25/K25)*LOG(I25/K25,2)-(J25/K25)*LOG(J25/K25,2))</f>
+        <v>0.81127812445913283</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="27" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23">
+        <f>(K29/$K$11)*L29+(K30/$K$11)*L30+(K31/$K$11)*L31</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N28" s="38">
+        <f>$L$11-M28</f>
+        <v>0.79742881581348812</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>2</v>
+      </c>
+      <c r="K29" s="14">
+        <f>I29+J29</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="17">
+        <v>2</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <f>I30+J30</f>
+        <v>2</v>
+      </c>
+      <c r="L30" s="14">
+        <f>((-I30/K30)*LOG(I30/K30,2)-(J30/K30)*LOG(J30/K30,2))</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="17">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" ref="K29:K34" si="0">I31+J31</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="17">
+        <v>9</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="14">
+        <f>(K33/$K$11)*L33+(K34/$K$11)*L34</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="39">
+        <f>$L$11-M32</f>
+        <v>0.94028595867063092</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="17">
+        <v>11</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <v>3</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="14">
+        <v>2</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" s="14">
+        <f>(K36/$K$11)*L36+(K37/$K$11)*L37</f>
+        <v>0.33963482158310487</v>
+      </c>
+      <c r="N35" s="26">
+        <f>$L$11-M35</f>
+        <v>0.60065113708752604</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H36" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+      <c r="J36" s="14">
+        <v>1</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" ref="K36:K37" si="1">I36+J36</f>
+        <v>2</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" ref="L36:L37" si="2">((-I36/K36)*LOG(I36/K36,2)-(J36/K36)*LOG(J36/K36,2))</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="33">
+        <v>1</v>
+      </c>
+      <c r="J37" s="33">
+        <v>2</v>
+      </c>
+      <c r="K37" s="33">
+        <f>I37+J37</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="33">
+        <f t="shared" si="2"/>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="34"/>
+    </row>
+    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="17">
+        <v>3</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="17">
+        <v>7</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="17">
+        <v>12</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="17">
+        <v>13</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23">
+        <f>(K46/$K$11)*L46+(K47/$K$11)*L47</f>
+        <v>0.33963482158310487</v>
+      </c>
+      <c r="N45" s="38">
+        <f>$L$11-M45</f>
+        <v>0.60065113708752604</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="17">
+        <v>4</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="12">
+        <v>2</v>
+      </c>
+      <c r="J46" s="12">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" ref="K46:K47" si="3">I46+J46</f>
+        <v>3</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" ref="L46:L47" si="4">((-I46/K46)*LOG(I46/K46,2)-(J46/K46)*LOG(J46/K46,2))</f>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="17">
+        <v>5</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="12">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="26"/>
+    </row>
+    <row r="48" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="17">
+        <v>6</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="14">
+        <f>(K49/$K$11)*L49+(K50/$K$11)*L50</f>
+        <v>0.33963482158310487</v>
+      </c>
+      <c r="N48" s="26">
+        <f>$L$11-M48</f>
+        <v>0.60065113708752604</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="17">
+        <v>10</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="12">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" ref="K49:K53" si="5">I49+J49</f>
+        <v>2</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" ref="L49:L50" si="6">((-I49/K49)*LOG(I49/K49,2)-(J49/K49)*LOG(J49/K49,2))</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="17">
+        <v>14</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="12">
+        <v>2</v>
+      </c>
+      <c r="J50" s="12">
+        <v>1</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="6"/>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="N50" s="26"/>
+    </row>
+    <row r="51" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M51" s="14">
+        <f>(K52/$K$11)*L52+(K53/$K$11)*L53</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="39">
+        <f>$L$11-M51</f>
+        <v>0.94028595867063092</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H52" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>2</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0</v>
+      </c>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="40">
+        <v>3</v>
+      </c>
+      <c r="J53" s="40">
+        <v>0</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L53" s="33">
+        <v>0</v>
+      </c>
+      <c r="M53" s="33"/>
+      <c r="N53" s="34"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H56" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H57" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="12">
+        <v>243</v>
+      </c>
+      <c r="T57" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="U57" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="V57" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="H58" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="12">
+        <v>89</v>
+      </c>
+      <c r="T58" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="U58" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="V58" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="H59" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="12">
+        <f>SUM(I57:I58)</f>
+        <v>332</v>
+      </c>
+      <c r="T59" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="U59" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="V59" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H60" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="12">
+        <f>1 - ((I57/I59)^2+(I58/I59)^2)</f>
+        <v>0.39241907388590502</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H61" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="T61" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T62" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T63" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="T64" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="28">
+        <v>1</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="28">
+        <v>2</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H61:I61"/>
+  </mergeCells>
+  <conditionalFormatting sqref="X4:AC17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$AC4="No - 0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ClassWork.xlsx
+++ b/ClassWork.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\AEC MCA Project Guidance 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E6475-2248-4E13-8261-40EF97BEAFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985629B3-313F-4BD3-BC2E-C0E45E3CF347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation &amp; Regression-1" sheetId="1" r:id="rId1"/>
     <sheet name="Correlation &amp; Regression-2" sheetId="2" r:id="rId2"/>
     <sheet name="Decision Tree" sheetId="3" r:id="rId3"/>
+    <sheet name="K-NN" sheetId="4" r:id="rId4"/>
+    <sheet name="K-NN (Iris)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="139">
   <si>
     <t>Student</t>
   </si>
@@ -444,15 +446,90 @@
       <t>Perfectly classified, Gini Index would be zero.</t>
     </r>
   </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Sepal_length</t>
+  </si>
+  <si>
+    <t>Sepal_width</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Euclidean
+Distance</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Manhattan
+Distance</t>
+  </si>
+  <si>
+    <t>Test Row</t>
+  </si>
+  <si>
+    <t>setosa</t>
+  </si>
+  <si>
+    <t>Virginica</t>
+  </si>
+  <si>
+    <t>K = 5</t>
+  </si>
+  <si>
+    <t>versicolor</t>
+  </si>
+  <si>
+    <t>virginica</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>sepal_length</t>
+  </si>
+  <si>
+    <t>sepal_width</t>
+  </si>
+  <si>
+    <t>petal_length</t>
+  </si>
+  <si>
+    <t>petal_width</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Rank2</t>
+  </si>
+  <si>
+    <t>Setosa</t>
+  </si>
+  <si>
+    <t>Versicolor</t>
+  </si>
+  <si>
+    <t>Manhattan Distance metric</t>
+  </si>
+  <si>
+    <t>Eucledian Distance Metric</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -544,6 +621,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -571,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -726,12 +811,545 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,12 +1470,573 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DCE96155-F8A9-49BE-804E-8124D67109A9}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1570,7 +2749,743 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-NN Classification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Setosa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-NN'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-NN'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08B2-45D1-90D7-522DCCF1471F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Versicolor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-NN'!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-NN'!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08B2-45D1-90D7-522DCCF1471F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Virginica</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-NN'!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-NN'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08B2-45D1-90D7-522DCCF1471F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-NN'!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-NN'!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08B2-45D1-90D7-522DCCF1471F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="656989663"/>
+        <c:axId val="2109496639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="656989663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sepal_Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109496639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2109496639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sepal_Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656989663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2085,6 +4000,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2712,6 +5143,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8058331B-40DE-02D3-8E9A-4BC7188287D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{347CD793-1786-4691-BEE1-A0A238848D33}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="38">
+  <autoFilter ref="A1:J151" xr:uid="{62B4E930-DFF6-4BF0-9F1C-5E4C67D47D9A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J151">
+    <sortCondition ref="A2:A151"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DCC5E6E9-10E2-45A1-9E4A-21753386754D}" name="Serial" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{84F58DDE-1AC9-4448-A0D7-7F8B46013990}" name="sepal_length" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0A30CA16-679A-4849-8558-59FF9746E226}" name="sepal_width" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{1BF596E4-5900-423E-89A7-8C1203F7DA05}" name="petal_length" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{62E749D1-BAF4-493A-97A1-5F52039FC271}" name="petal_width" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5CFB4761-E06F-4EA0-866B-EB531BA29B9C}" name="species" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{7960BDB6-4F97-404E-B7A4-8766C752AA01}" name="Euclidean_x000a_Distance" dataDxfId="31">
+      <calculatedColumnFormula>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N4)^2+(Table1[[#This Row],[petal_width]]-O4)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{33B10DC6-F2AA-4343-A4BE-A5D55D675CD6}" name="Rank" dataDxfId="30">
+      <calculatedColumnFormula>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1A9C4685-567A-43D9-8CA3-F85B562C802D}" name="Manhattan_x000a_Distance" dataDxfId="29">
+      <calculatedColumnFormula>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8792689E-8EBC-4E65-9BFD-AA30C7514647}" name="Rank2" dataDxfId="28">
+      <calculatedColumnFormula>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3808,7 +6325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D45E3-1A8A-42B5-B91F-6FBACC6F6BB1}">
   <dimension ref="B1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5807,7 +8324,7 @@
     <mergeCell ref="H61:I61"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:AC17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$AC4="No - 0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5815,4 +8332,6687 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5B4333-9F17-41C7-AD04-0DBF5ABAD425}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="12"/>
+    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="59">
+        <f>SQRT((B2-$J$3)^2+(C2-$K$3)^2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="60">
+        <f>RANK(E2,$E$2:$E$16,1)</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="56">
+        <f>ABS(B2-$J$3)+ABS(C2-$K$3)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="H2" s="58">
+        <f>RANK(G2,$G$2:$G$16,1)</f>
+        <v>11</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="62">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3" s="64">
+        <v>3</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="66">
+        <f t="shared" ref="E3:E16" si="0">SQRT((B3-$J$3)^2+(C3-$K$3)^2)</f>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="F3" s="67">
+        <f t="shared" ref="F3:F16" si="1">RANK(E3,$E$2:$E$16,1)</f>
+        <v>11</v>
+      </c>
+      <c r="G3" s="63">
+        <f t="shared" ref="G3:G16" si="2">ABS(B3-$J$3)+ABS(C3-$K$3)</f>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="H3" s="65">
+        <f t="shared" ref="H3:H16" si="3">RANK(G3,$G$2:$G$16,1)</f>
+        <v>8</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="K3" s="103">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63">
+        <v>4.7</v>
+      </c>
+      <c r="C4" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="66">
+        <f t="shared" si="0"/>
+        <v>1.6124515496597096</v>
+      </c>
+      <c r="F4" s="67">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="63">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H4" s="65">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="62">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="66">
+        <f t="shared" si="0"/>
+        <v>1.7029386365926404</v>
+      </c>
+      <c r="F5" s="67">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G5" s="63">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="H5" s="65">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="62">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="66">
+        <f t="shared" si="0"/>
+        <v>1.4317821063276353</v>
+      </c>
+      <c r="F6" s="67">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="63">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="H6" s="65">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="62">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="66">
+        <f t="shared" si="0"/>
+        <v>1.0630145812734648</v>
+      </c>
+      <c r="F7" s="67">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="63">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="65">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="62">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="C8" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="66">
+        <f t="shared" si="0"/>
+        <v>0.28284271247461928</v>
+      </c>
+      <c r="F8" s="67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="63">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H8" s="65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="62">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63">
+        <v>5.7</v>
+      </c>
+      <c r="C9" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" si="0"/>
+        <v>0.63245553203367566</v>
+      </c>
+      <c r="F9" s="67">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="63">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H9" s="65">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="62">
+        <v>9</v>
+      </c>
+      <c r="B10" s="63">
+        <v>6.3</v>
+      </c>
+      <c r="C10" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="66">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F10" s="67">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="63">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="H10" s="65">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C11" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="66">
+        <f t="shared" si="0"/>
+        <v>1.5231546211727811</v>
+      </c>
+      <c r="F11" s="67">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G11" s="63">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="H11" s="65">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="62">
+        <v>11</v>
+      </c>
+      <c r="B12" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="C12" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="66">
+        <f t="shared" si="0"/>
+        <v>1.0816653826391971</v>
+      </c>
+      <c r="F12" s="67">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="63">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="H12" s="65">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
+        <v>12</v>
+      </c>
+      <c r="B13" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="C13" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="66">
+        <f t="shared" si="0"/>
+        <v>0.28284271247461928</v>
+      </c>
+      <c r="F13" s="67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="63">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H13" s="65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="62">
+        <v>13</v>
+      </c>
+      <c r="B14" s="63">
+        <v>6.4</v>
+      </c>
+      <c r="C14" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="66">
+        <f t="shared" si="0"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="F14" s="67">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="63">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H14" s="65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="62">
+        <v>14</v>
+      </c>
+      <c r="B15" s="63">
+        <v>6.8</v>
+      </c>
+      <c r="C15" s="64">
+        <v>3</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="66">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="67">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="63">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="65">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>5.7</v>
+      </c>
+      <c r="C16" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="72">
+        <f t="shared" si="0"/>
+        <v>0.7810249675906652</v>
+      </c>
+      <c r="F16" s="73">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="69">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="H16" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F16">
+    <cfRule type="top10" dxfId="24" priority="4" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="top10" dxfId="23" priority="3" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G16">
+    <cfRule type="top10" dxfId="22" priority="2" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H16">
+    <cfRule type="top10" dxfId="18" priority="1" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED75BC4-6749-44B6-B9A1-6CFB6A06C887}">
+  <dimension ref="A1:Q151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="13.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="12" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="12"/>
+    <col min="9" max="9" width="10.21875" style="12" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="12"/>
+    <col min="12" max="12" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" s="80">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="80">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N4)^2+(Table1[[#This Row],[petal_width]]-O4)^2)</f>
+        <v>3.4788647573597911</v>
+      </c>
+      <c r="H2" s="81">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>50</v>
+      </c>
+      <c r="I2" s="83">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="J2" s="84">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>134</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+    </row>
+    <row r="3" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="86">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3" s="64">
+        <v>3</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N5)^2+(Table1[[#This Row],[petal_width]]-O5)^2)</f>
+        <v>2.3027157879338906</v>
+      </c>
+      <c r="H3" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.05</v>
+      </c>
+      <c r="J3" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>110</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="86">
+        <v>3</v>
+      </c>
+      <c r="B4" s="87">
+        <v>4.7</v>
+      </c>
+      <c r="C4" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N6)^2+(Table1[[#This Row],[petal_width]]-O6)^2)</f>
+        <v>2.43567239176372</v>
+      </c>
+      <c r="H4" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>27</v>
+      </c>
+      <c r="I4" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.55</v>
+      </c>
+      <c r="J4" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>140</v>
+      </c>
+      <c r="L4" s="93">
+        <v>6.7</v>
+      </c>
+      <c r="M4" s="94">
+        <v>2.75</v>
+      </c>
+      <c r="N4" s="94">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O4" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="86">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D5" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N7)^2+(Table1[[#This Row],[petal_width]]-O7)^2)</f>
+        <v>2.6119915773217959</v>
+      </c>
+      <c r="H5" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>42</v>
+      </c>
+      <c r="I5" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="J5" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="86">
+        <v>5</v>
+      </c>
+      <c r="B6" s="87">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N8)^2+(Table1[[#This Row],[petal_width]]-O8)^2)</f>
+        <v>2.3690715480964268</v>
+      </c>
+      <c r="H6" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>20</v>
+      </c>
+      <c r="I6" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.55</v>
+      </c>
+      <c r="J6" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>140</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="86">
+        <v>6</v>
+      </c>
+      <c r="B7" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C7" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="D7" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N9)^2+(Table1[[#This Row],[petal_width]]-O9)^2)</f>
+        <v>2.462214450449026</v>
+      </c>
+      <c r="H7" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>31</v>
+      </c>
+      <c r="I7" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="J7" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>107</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="86">
+        <v>7</v>
+      </c>
+      <c r="B8" s="87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C8" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D8" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N10)^2+(Table1[[#This Row],[petal_width]]-O10)^2)</f>
+        <v>2.6234519244689811</v>
+      </c>
+      <c r="H8" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>43</v>
+      </c>
+      <c r="I8" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.65</v>
+      </c>
+      <c r="J8" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="86">
+        <v>8</v>
+      </c>
+      <c r="B9" s="87">
+        <v>5</v>
+      </c>
+      <c r="C9" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N11)^2+(Table1[[#This Row],[petal_width]]-O11)^2)</f>
+        <v>2.3669600757089251</v>
+      </c>
+      <c r="H9" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>19</v>
+      </c>
+      <c r="I9" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="J9" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="86">
+        <v>9</v>
+      </c>
+      <c r="B10" s="87">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C10" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D10" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N12)^2+(Table1[[#This Row],[petal_width]]-O12)^2)</f>
+        <v>2.7041634565979917</v>
+      </c>
+      <c r="H10" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>47</v>
+      </c>
+      <c r="I10" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="J10" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86">
+        <v>10</v>
+      </c>
+      <c r="B11" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C11" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D11" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N13)^2+(Table1[[#This Row],[petal_width]]-O13)^2)</f>
+        <v>2.3711811402758749</v>
+      </c>
+      <c r="H11" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>21</v>
+      </c>
+      <c r="I11" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.15</v>
+      </c>
+      <c r="J11" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86">
+        <v>11</v>
+      </c>
+      <c r="B12" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C12" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="D12" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N14)^2+(Table1[[#This Row],[petal_width]]-O14)^2)</f>
+        <v>2.2096379793984351</v>
+      </c>
+      <c r="H12" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="J12" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86">
+        <v>12</v>
+      </c>
+      <c r="B13" s="87">
+        <v>4.8</v>
+      </c>
+      <c r="C13" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D13" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N15)^2+(Table1[[#This Row],[petal_width]]-O15)^2)</f>
+        <v>2.5753640519351824</v>
+      </c>
+      <c r="H13" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>39</v>
+      </c>
+      <c r="I13" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.35</v>
+      </c>
+      <c r="J13" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="86">
+        <v>13</v>
+      </c>
+      <c r="B14" s="87">
+        <v>4.8</v>
+      </c>
+      <c r="C14" s="64">
+        <v>3</v>
+      </c>
+      <c r="D14" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N16)^2+(Table1[[#This Row],[petal_width]]-O16)^2)</f>
+        <v>2.3753947040439409</v>
+      </c>
+      <c r="H14" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>24</v>
+      </c>
+      <c r="I14" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.25</v>
+      </c>
+      <c r="J14" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86">
+        <v>14</v>
+      </c>
+      <c r="B15" s="87">
+        <v>4.3</v>
+      </c>
+      <c r="C15" s="64">
+        <v>3</v>
+      </c>
+      <c r="D15" s="64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N17)^2+(Table1[[#This Row],[petal_width]]-O17)^2)</f>
+        <v>2.6537709019431199</v>
+      </c>
+      <c r="H15" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>44</v>
+      </c>
+      <c r="I15" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="J15" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="86">
+        <v>15</v>
+      </c>
+      <c r="B16" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C16" s="64">
+        <v>4</v>
+      </c>
+      <c r="D16" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N18)^2+(Table1[[#This Row],[petal_width]]-O18)^2)</f>
+        <v>1.9627786426390523</v>
+      </c>
+      <c r="H16" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.35</v>
+      </c>
+      <c r="J16" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="86">
+        <v>16</v>
+      </c>
+      <c r="B17" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C17" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D17" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N19)^2+(Table1[[#This Row],[petal_width]]-O19)^2)</f>
+        <v>2.4763884994079586</v>
+      </c>
+      <c r="H17" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>32</v>
+      </c>
+      <c r="I17" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.35</v>
+      </c>
+      <c r="J17" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="86">
+        <v>17</v>
+      </c>
+      <c r="B18" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C18" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="D18" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N20)^2+(Table1[[#This Row],[petal_width]]-O20)^2)</f>
+        <v>2.2051077071199945</v>
+      </c>
+      <c r="H18" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>6</v>
+      </c>
+      <c r="I18" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.35</v>
+      </c>
+      <c r="J18" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="86">
+        <v>18</v>
+      </c>
+      <c r="B19" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C19" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E19" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N21)^2+(Table1[[#This Row],[petal_width]]-O21)^2)</f>
+        <v>2.2743130831088321</v>
+      </c>
+      <c r="H19" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>12</v>
+      </c>
+      <c r="I19" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.2500000000000009</v>
+      </c>
+      <c r="J19" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86">
+        <v>19</v>
+      </c>
+      <c r="B20" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C20" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D20" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N22)^2+(Table1[[#This Row],[petal_width]]-O22)^2)</f>
+        <v>2.2544400635190991</v>
+      </c>
+      <c r="H20" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>9</v>
+      </c>
+      <c r="I20" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.6499999999999995</v>
+      </c>
+      <c r="J20" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="86">
+        <v>20</v>
+      </c>
+      <c r="B21" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C21" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N23)^2+(Table1[[#This Row],[petal_width]]-O23)^2)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H21" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>28</v>
+      </c>
+      <c r="I21" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.45</v>
+      </c>
+      <c r="J21" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="86">
+        <v>21</v>
+      </c>
+      <c r="B22" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C22" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D22" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N24)^2+(Table1[[#This Row],[petal_width]]-O24)^2)</f>
+        <v>2.245551157288562</v>
+      </c>
+      <c r="H22" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>8</v>
+      </c>
+      <c r="I22" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.6499999999999995</v>
+      </c>
+      <c r="J22" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="86">
+        <v>22</v>
+      </c>
+      <c r="B23" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C23" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="D23" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N25)^2+(Table1[[#This Row],[petal_width]]-O25)^2)</f>
+        <v>2.4233241632105273</v>
+      </c>
+      <c r="H23" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>26</v>
+      </c>
+      <c r="I23" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.25</v>
+      </c>
+      <c r="J23" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="86">
+        <v>23</v>
+      </c>
+      <c r="B24" s="87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C24" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="64">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N26)^2+(Table1[[#This Row],[petal_width]]-O26)^2)</f>
+        <v>2.4844516497609694</v>
+      </c>
+      <c r="H24" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>33</v>
+      </c>
+      <c r="I24" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="J24" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="86">
+        <v>24</v>
+      </c>
+      <c r="B25" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C25" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D25" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N27)^2+(Table1[[#This Row],[petal_width]]-O27)^2)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H25" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>28</v>
+      </c>
+      <c r="I25" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.55</v>
+      </c>
+      <c r="J25" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="86">
+        <v>25</v>
+      </c>
+      <c r="B26" s="87">
+        <v>4.8</v>
+      </c>
+      <c r="C26" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D26" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N28)^2+(Table1[[#This Row],[petal_width]]-O28)^2)</f>
+        <v>2.7717323103070397</v>
+      </c>
+      <c r="H26" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>49</v>
+      </c>
+      <c r="I26" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.05</v>
+      </c>
+      <c r="J26" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="86">
+        <v>26</v>
+      </c>
+      <c r="B27" s="87">
+        <v>5</v>
+      </c>
+      <c r="C27" s="64">
+        <v>3</v>
+      </c>
+      <c r="D27" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N29)^2+(Table1[[#This Row],[petal_width]]-O29)^2)</f>
+        <v>2.3563743335896361</v>
+      </c>
+      <c r="H27" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>18</v>
+      </c>
+      <c r="I27" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.7499999999999991</v>
+      </c>
+      <c r="J27" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="86">
+        <v>27</v>
+      </c>
+      <c r="B28" s="87">
+        <v>5</v>
+      </c>
+      <c r="C28" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D28" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N30)^2+(Table1[[#This Row],[petal_width]]-O30)^2)</f>
+        <v>2.4561148181630275</v>
+      </c>
+      <c r="H28" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>30</v>
+      </c>
+      <c r="I28" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="J28" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="86">
+        <v>28</v>
+      </c>
+      <c r="B29" s="87">
+        <v>5.2</v>
+      </c>
+      <c r="C29" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N31)^2+(Table1[[#This Row],[petal_width]]-O31)^2)</f>
+        <v>2.2588713996153036</v>
+      </c>
+      <c r="H29" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>10</v>
+      </c>
+      <c r="I29" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="J29" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="86">
+        <v>29</v>
+      </c>
+      <c r="B30" s="87">
+        <v>5.2</v>
+      </c>
+      <c r="C30" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D30" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N32)^2+(Table1[[#This Row],[petal_width]]-O32)^2)</f>
+        <v>2.1615966321217286</v>
+      </c>
+      <c r="H30" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>5</v>
+      </c>
+      <c r="I30" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="J30" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="86">
+        <v>30</v>
+      </c>
+      <c r="B31" s="87">
+        <v>4.7</v>
+      </c>
+      <c r="C31" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D31" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E31" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N33)^2+(Table1[[#This Row],[petal_width]]-O33)^2)</f>
+        <v>2.6081602711489955</v>
+      </c>
+      <c r="H31" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>40</v>
+      </c>
+      <c r="I31" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="J31" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="86">
+        <v>31</v>
+      </c>
+      <c r="B32" s="87">
+        <v>4.8</v>
+      </c>
+      <c r="C32" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D32" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N34)^2+(Table1[[#This Row],[petal_width]]-O34)^2)</f>
+        <v>2.5164459064323244</v>
+      </c>
+      <c r="H32" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>36</v>
+      </c>
+      <c r="I32" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.05</v>
+      </c>
+      <c r="J32" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="86">
+        <v>32</v>
+      </c>
+      <c r="B33" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C33" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D33" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N35)^2+(Table1[[#This Row],[petal_width]]-O35)^2)</f>
+        <v>2.1266170318136735</v>
+      </c>
+      <c r="H33" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>3</v>
+      </c>
+      <c r="I33" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.6499999999999986</v>
+      </c>
+      <c r="J33" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="86">
+        <v>33</v>
+      </c>
+      <c r="B34" s="87">
+        <v>5.2</v>
+      </c>
+      <c r="C34" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D34" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N36)^2+(Table1[[#This Row],[petal_width]]-O36)^2)</f>
+        <v>2.5164459064323235</v>
+      </c>
+      <c r="H34" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>35</v>
+      </c>
+      <c r="I34" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.85</v>
+      </c>
+      <c r="J34" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="86">
+        <v>34</v>
+      </c>
+      <c r="B35" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C35" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="D35" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N37)^2+(Table1[[#This Row],[petal_width]]-O37)^2)</f>
+        <v>2.3542514733987105</v>
+      </c>
+      <c r="H35" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>17</v>
+      </c>
+      <c r="I35" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="J35" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="86">
+        <v>35</v>
+      </c>
+      <c r="B36" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C36" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D36" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N38)^2+(Table1[[#This Row],[petal_width]]-O38)^2)</f>
+        <v>2.3711811402758749</v>
+      </c>
+      <c r="H36" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>21</v>
+      </c>
+      <c r="I36" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.15</v>
+      </c>
+      <c r="J36" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="86">
+        <v>36</v>
+      </c>
+      <c r="B37" s="87">
+        <v>5</v>
+      </c>
+      <c r="C37" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D37" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N39)^2+(Table1[[#This Row],[petal_width]]-O39)^2)</f>
+        <v>2.1383404780343098</v>
+      </c>
+      <c r="H37" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>4</v>
+      </c>
+      <c r="I37" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.35</v>
+      </c>
+      <c r="J37" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="86">
+        <v>37</v>
+      </c>
+      <c r="B38" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C38" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="D38" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E38" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N40)^2+(Table1[[#This Row],[petal_width]]-O40)^2)</f>
+        <v>1.9319679086361659</v>
+      </c>
+      <c r="H38" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.05</v>
+      </c>
+      <c r="J38" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="86">
+        <v>38</v>
+      </c>
+      <c r="B39" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C39" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D39" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N41)^2+(Table1[[#This Row],[petal_width]]-O41)^2)</f>
+        <v>2.3711811402758749</v>
+      </c>
+      <c r="H39" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>21</v>
+      </c>
+      <c r="I39" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.15</v>
+      </c>
+      <c r="J39" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="86">
+        <v>39</v>
+      </c>
+      <c r="B40" s="87">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C40" s="64">
+        <v>3</v>
+      </c>
+      <c r="D40" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E40" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N42)^2+(Table1[[#This Row],[petal_width]]-O42)^2)</f>
+        <v>2.6612966764342527</v>
+      </c>
+      <c r="H40" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>45</v>
+      </c>
+      <c r="I40" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="J40" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="86">
+        <v>40</v>
+      </c>
+      <c r="B41" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C41" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D41" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N43)^2+(Table1[[#This Row],[petal_width]]-O43)^2)</f>
+        <v>2.2961925006410073</v>
+      </c>
+      <c r="H41" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>15</v>
+      </c>
+      <c r="I41" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="J41" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="86">
+        <v>41</v>
+      </c>
+      <c r="B42" s="87">
+        <v>5</v>
+      </c>
+      <c r="C42" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="D42" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E42" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N44)^2+(Table1[[#This Row],[petal_width]]-O44)^2)</f>
+        <v>2.287465846739575</v>
+      </c>
+      <c r="H42" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>14</v>
+      </c>
+      <c r="I42" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.45</v>
+      </c>
+      <c r="J42" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="86">
+        <v>42</v>
+      </c>
+      <c r="B43" s="87">
+        <v>4.5</v>
+      </c>
+      <c r="C43" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D43" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E43" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N45)^2+(Table1[[#This Row],[petal_width]]-O45)^2)</f>
+        <v>2.6119915773217954</v>
+      </c>
+      <c r="H43" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>41</v>
+      </c>
+      <c r="I43" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.65</v>
+      </c>
+      <c r="J43" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="86">
+        <v>43</v>
+      </c>
+      <c r="B44" s="87">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C44" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D44" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N46)^2+(Table1[[#This Row],[petal_width]]-O46)^2)</f>
+        <v>2.6874709300753374</v>
+      </c>
+      <c r="H44" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>46</v>
+      </c>
+      <c r="I44" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.85</v>
+      </c>
+      <c r="J44" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="86">
+        <v>44</v>
+      </c>
+      <c r="B45" s="87">
+        <v>5</v>
+      </c>
+      <c r="C45" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="D45" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E45" s="64">
+        <v>0.6</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N47)^2+(Table1[[#This Row],[petal_width]]-O47)^2)</f>
+        <v>2.5243811122728679</v>
+      </c>
+      <c r="H45" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>37</v>
+      </c>
+      <c r="I45" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.85</v>
+      </c>
+      <c r="J45" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="86">
+        <v>45</v>
+      </c>
+      <c r="B46" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C46" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D46" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="E46" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N48)^2+(Table1[[#This Row],[petal_width]]-O48)^2)</f>
+        <v>2.7262611760431175</v>
+      </c>
+      <c r="H46" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>48</v>
+      </c>
+      <c r="I46" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="J46" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="86">
+        <v>46</v>
+      </c>
+      <c r="B47" s="87">
+        <v>4.8</v>
+      </c>
+      <c r="C47" s="64">
+        <v>3</v>
+      </c>
+      <c r="D47" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E47" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N49)^2+(Table1[[#This Row],[petal_width]]-O49)^2)</f>
+        <v>2.3921747427811373</v>
+      </c>
+      <c r="H47" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>25</v>
+      </c>
+      <c r="I47" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.05</v>
+      </c>
+      <c r="J47" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="86">
+        <v>47</v>
+      </c>
+      <c r="B48" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C48" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D48" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="E48" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N50)^2+(Table1[[#This Row],[petal_width]]-O50)^2)</f>
+        <v>2.50249875124844</v>
+      </c>
+      <c r="H48" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>34</v>
+      </c>
+      <c r="I48" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.45</v>
+      </c>
+      <c r="J48" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="86">
+        <v>48</v>
+      </c>
+      <c r="B49" s="87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C49" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D49" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E49" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N51)^2+(Table1[[#This Row],[petal_width]]-O51)^2)</f>
+        <v>2.5714781741247585</v>
+      </c>
+      <c r="H49" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>38</v>
+      </c>
+      <c r="I49" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.55</v>
+      </c>
+      <c r="J49" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="86">
+        <v>49</v>
+      </c>
+      <c r="B50" s="87">
+        <v>5.3</v>
+      </c>
+      <c r="C50" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="D50" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N52)^2+(Table1[[#This Row],[petal_width]]-O52)^2)</f>
+        <v>2.2699118925632336</v>
+      </c>
+      <c r="H50" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>11</v>
+      </c>
+      <c r="I50" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.25</v>
+      </c>
+      <c r="J50" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="86">
+        <v>50</v>
+      </c>
+      <c r="B51" s="87">
+        <v>5</v>
+      </c>
+      <c r="C51" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D51" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="E51" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N53)^2+(Table1[[#This Row],[petal_width]]-O53)^2)</f>
+        <v>2.2787057730211684</v>
+      </c>
+      <c r="H51" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>13</v>
+      </c>
+      <c r="I51" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="J51" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="86">
+        <v>51</v>
+      </c>
+      <c r="B52" s="87">
+        <v>7</v>
+      </c>
+      <c r="C52" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D52" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="E52" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F52" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N54)^2+(Table1[[#This Row],[petal_width]]-O54)^2)</f>
+        <v>4.9338119137235061</v>
+      </c>
+      <c r="H52" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>91</v>
+      </c>
+      <c r="I52" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000006</v>
+      </c>
+      <c r="J52" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="86">
+        <v>52</v>
+      </c>
+      <c r="B53" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C53" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D53" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E53" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N55)^2+(Table1[[#This Row],[petal_width]]-O55)^2)</f>
+        <v>4.7741491388518646</v>
+      </c>
+      <c r="H53" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>80</v>
+      </c>
+      <c r="I53" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="J53" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="86">
+        <v>53</v>
+      </c>
+      <c r="B54" s="87">
+        <v>6.9</v>
+      </c>
+      <c r="C54" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D54" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E54" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N56)^2+(Table1[[#This Row],[petal_width]]-O56)^2)</f>
+        <v>5.140282093426392</v>
+      </c>
+      <c r="H54" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>96</v>
+      </c>
+      <c r="I54" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.350000000000001</v>
+      </c>
+      <c r="J54" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="86">
+        <v>54</v>
+      </c>
+      <c r="B55" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C55" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D55" s="64">
+        <v>4</v>
+      </c>
+      <c r="E55" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N57)^2+(Table1[[#This Row],[petal_width]]-O57)^2)</f>
+        <v>4.396873889481026</v>
+      </c>
+      <c r="H55" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>66</v>
+      </c>
+      <c r="I55" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.95</v>
+      </c>
+      <c r="J55" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="86">
+        <v>55</v>
+      </c>
+      <c r="B56" s="87">
+        <v>6.5</v>
+      </c>
+      <c r="C56" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D56" s="64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E56" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N58)^2+(Table1[[#This Row],[petal_width]]-O58)^2)</f>
+        <v>4.8427781283061062</v>
+      </c>
+      <c r="H56" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>85</v>
+      </c>
+      <c r="I56" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J56" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="86">
+        <v>56</v>
+      </c>
+      <c r="B57" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C57" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D57" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E57" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N59)^2+(Table1[[#This Row],[petal_width]]-O59)^2)</f>
+        <v>4.789832982474441</v>
+      </c>
+      <c r="H57" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>82</v>
+      </c>
+      <c r="I57" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="J57" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="86">
+        <v>57</v>
+      </c>
+      <c r="B58" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C58" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D58" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="E58" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N60)^2+(Table1[[#This Row],[petal_width]]-O60)^2)</f>
+        <v>5.0112373721467236</v>
+      </c>
+      <c r="H58" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>95</v>
+      </c>
+      <c r="I58" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.6500000000000008</v>
+      </c>
+      <c r="J58" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="86">
+        <v>58</v>
+      </c>
+      <c r="B59" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C59" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="D59" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="E59" s="64">
+        <v>1</v>
+      </c>
+      <c r="F59" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N61)^2+(Table1[[#This Row],[petal_width]]-O61)^2)</f>
+        <v>3.9054449170357017</v>
+      </c>
+      <c r="H59" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>54</v>
+      </c>
+      <c r="I59" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="J59" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="86">
+        <v>59</v>
+      </c>
+      <c r="B60" s="87">
+        <v>6.6</v>
+      </c>
+      <c r="C60" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D60" s="64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E60" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N62)^2+(Table1[[#This Row],[petal_width]]-O62)^2)</f>
+        <v>4.7835656157305921</v>
+      </c>
+      <c r="H60" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>81</v>
+      </c>
+      <c r="I60" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.9500000000000004</v>
+      </c>
+      <c r="J60" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="86">
+        <v>60</v>
+      </c>
+      <c r="B61" s="87">
+        <v>5.2</v>
+      </c>
+      <c r="C61" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D61" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="E61" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F61" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N63)^2+(Table1[[#This Row],[petal_width]]-O63)^2)</f>
+        <v>4.407096549884062</v>
+      </c>
+      <c r="H61" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>67</v>
+      </c>
+      <c r="I61" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="J61" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="86">
+        <v>61</v>
+      </c>
+      <c r="B62" s="87">
+        <v>5</v>
+      </c>
+      <c r="C62" s="64">
+        <v>2</v>
+      </c>
+      <c r="D62" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="E62" s="64">
+        <v>1</v>
+      </c>
+      <c r="F62" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N64)^2+(Table1[[#This Row],[petal_width]]-O64)^2)</f>
+        <v>4.0868692173838888</v>
+      </c>
+      <c r="H62" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>57</v>
+      </c>
+      <c r="I62" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.55</v>
+      </c>
+      <c r="J62" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="86">
+        <v>62</v>
+      </c>
+      <c r="B63" s="87">
+        <v>5.9</v>
+      </c>
+      <c r="C63" s="64">
+        <v>3</v>
+      </c>
+      <c r="D63" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="E63" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N65)^2+(Table1[[#This Row],[petal_width]]-O65)^2)</f>
+        <v>4.5378959882306695</v>
+      </c>
+      <c r="H63" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>75</v>
+      </c>
+      <c r="I63" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="J63" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="86">
+        <v>63</v>
+      </c>
+      <c r="B64" s="87">
+        <v>6</v>
+      </c>
+      <c r="C64" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D64" s="64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N66)^2+(Table1[[#This Row],[petal_width]]-O66)^2)</f>
+        <v>4.2181156930553723</v>
+      </c>
+      <c r="H64" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>61</v>
+      </c>
+      <c r="I64" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="J64" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="86">
+        <v>64</v>
+      </c>
+      <c r="B65" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C65" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D65" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="E65" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F65" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N67)^2+(Table1[[#This Row],[petal_width]]-O67)^2)</f>
+        <v>4.9429242357131074</v>
+      </c>
+      <c r="H65" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>92</v>
+      </c>
+      <c r="I65" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000011</v>
+      </c>
+      <c r="J65" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="86">
+        <v>65</v>
+      </c>
+      <c r="B66" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C66" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D66" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="E66" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N68)^2+(Table1[[#This Row],[petal_width]]-O68)^2)</f>
+        <v>3.9852854351978357</v>
+      </c>
+      <c r="H66" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>55</v>
+      </c>
+      <c r="I66" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.95</v>
+      </c>
+      <c r="J66" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="86">
+        <v>66</v>
+      </c>
+      <c r="B67" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C67" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D67" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E67" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N69)^2+(Table1[[#This Row],[petal_width]]-O69)^2)</f>
+        <v>4.6306047121299398</v>
+      </c>
+      <c r="H67" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>78</v>
+      </c>
+      <c r="I67" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.75000000000000089</v>
+      </c>
+      <c r="J67" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="86">
+        <v>67</v>
+      </c>
+      <c r="B68" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C68" s="64">
+        <v>3</v>
+      </c>
+      <c r="D68" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E68" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N70)^2+(Table1[[#This Row],[petal_width]]-O70)^2)</f>
+        <v>4.8757050772170381</v>
+      </c>
+      <c r="H68" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>88</v>
+      </c>
+      <c r="I68" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.7500000000000009</v>
+      </c>
+      <c r="J68" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="86">
+        <v>68</v>
+      </c>
+      <c r="B69" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C69" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D69" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E69" s="64">
+        <v>1</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N71)^2+(Table1[[#This Row],[petal_width]]-O71)^2)</f>
+        <v>4.3153794734646453</v>
+      </c>
+      <c r="H69" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>64</v>
+      </c>
+      <c r="I69" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="J69" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="86">
+        <v>69</v>
+      </c>
+      <c r="B70" s="87">
+        <v>6.2</v>
+      </c>
+      <c r="C70" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D70" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E70" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N72)^2+(Table1[[#This Row],[petal_width]]-O72)^2)</f>
+        <v>4.8013019067748699</v>
+      </c>
+      <c r="H70" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>84</v>
+      </c>
+      <c r="I70" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="J70" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="86">
+        <v>70</v>
+      </c>
+      <c r="B71" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C71" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D71" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="E71" s="64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N73)^2+(Table1[[#This Row],[petal_width]]-O73)^2)</f>
+        <v>4.2062453566096218</v>
+      </c>
+      <c r="H71" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>60</v>
+      </c>
+      <c r="I71" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="J71" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="86">
+        <v>71</v>
+      </c>
+      <c r="B72" s="87">
+        <v>5.9</v>
+      </c>
+      <c r="C72" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D72" s="64">
+        <v>4.8</v>
+      </c>
+      <c r="E72" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N74)^2+(Table1[[#This Row],[petal_width]]-O74)^2)</f>
+        <v>5.2079266507891608</v>
+      </c>
+      <c r="H72" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>101</v>
+      </c>
+      <c r="I72" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.25</v>
+      </c>
+      <c r="J72" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="86">
+        <v>72</v>
+      </c>
+      <c r="B73" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C73" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D73" s="64">
+        <v>4</v>
+      </c>
+      <c r="E73" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N75)^2+(Table1[[#This Row],[petal_width]]-O75)^2)</f>
+        <v>4.248823366533375</v>
+      </c>
+      <c r="H73" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>62</v>
+      </c>
+      <c r="I73" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J73" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="86">
+        <v>73</v>
+      </c>
+      <c r="B74" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C74" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D74" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E74" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N76)^2+(Table1[[#This Row],[petal_width]]-O76)^2)</f>
+        <v>5.1461150395225337</v>
+      </c>
+      <c r="H74" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>98</v>
+      </c>
+      <c r="I74" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000011</v>
+      </c>
+      <c r="J74" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="86">
+        <v>74</v>
+      </c>
+      <c r="B75" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C75" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D75" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="E75" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="F75" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N77)^2+(Table1[[#This Row],[petal_width]]-O77)^2)</f>
+        <v>4.8879954991795982</v>
+      </c>
+      <c r="H75" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>89</v>
+      </c>
+      <c r="I75" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.5500000000000009</v>
+      </c>
+      <c r="J75" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="86">
+        <v>75</v>
+      </c>
+      <c r="B76" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C76" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D76" s="64">
+        <v>4.3</v>
+      </c>
+      <c r="E76" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N78)^2+(Table1[[#This Row],[petal_width]]-O78)^2)</f>
+        <v>4.5047197471096911</v>
+      </c>
+      <c r="H76" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>71</v>
+      </c>
+      <c r="I76" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="J76" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="86">
+        <v>76</v>
+      </c>
+      <c r="B77" s="87">
+        <v>6.6</v>
+      </c>
+      <c r="C77" s="64">
+        <v>3</v>
+      </c>
+      <c r="D77" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E77" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F77" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N79)^2+(Table1[[#This Row],[petal_width]]-O79)^2)</f>
+        <v>4.6252026982609102</v>
+      </c>
+      <c r="H77" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>76</v>
+      </c>
+      <c r="I77" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.75000000000000133</v>
+      </c>
+      <c r="J77" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="86">
+        <v>77</v>
+      </c>
+      <c r="B78" s="87">
+        <v>6.8</v>
+      </c>
+      <c r="C78" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D78" s="64">
+        <v>4.8</v>
+      </c>
+      <c r="E78" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N80)^2+(Table1[[#This Row],[petal_width]]-O80)^2)</f>
+        <v>5.0012498437890498</v>
+      </c>
+      <c r="H78" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>94</v>
+      </c>
+      <c r="I78" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.94999999999999973</v>
+      </c>
+      <c r="J78" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="86">
+        <v>78</v>
+      </c>
+      <c r="B79" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C79" s="64">
+        <v>3</v>
+      </c>
+      <c r="D79" s="64">
+        <v>5</v>
+      </c>
+      <c r="E79" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="F79" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N81)^2+(Table1[[#This Row],[petal_width]]-O81)^2)</f>
+        <v>5.2870123888638654</v>
+      </c>
+      <c r="H79" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>104</v>
+      </c>
+      <c r="I79" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="J79" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="86">
+        <v>79</v>
+      </c>
+      <c r="B80" s="87">
+        <v>6</v>
+      </c>
+      <c r="C80" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D80" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E80" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N82)^2+(Table1[[#This Row],[petal_width]]-O82)^2)</f>
+        <v>4.7971345613814087</v>
+      </c>
+      <c r="H80" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>83</v>
+      </c>
+      <c r="I80" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.2500000000000004</v>
+      </c>
+      <c r="J80" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="86">
+        <v>80</v>
+      </c>
+      <c r="B81" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C81" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="D81" s="64">
+        <v>3.5</v>
+      </c>
+      <c r="E81" s="64">
+        <v>1</v>
+      </c>
+      <c r="F81" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N83)^2+(Table1[[#This Row],[petal_width]]-O83)^2)</f>
+        <v>3.7778962399727178</v>
+      </c>
+      <c r="H81" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>52</v>
+      </c>
+      <c r="I81" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="J81" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="86">
+        <v>81</v>
+      </c>
+      <c r="B82" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C82" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="D82" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="E82" s="64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F82" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N84)^2+(Table1[[#This Row],[petal_width]]-O84)^2)</f>
+        <v>4.1487950057817997</v>
+      </c>
+      <c r="H82" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>58</v>
+      </c>
+      <c r="I82" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.25</v>
+      </c>
+      <c r="J82" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="86">
+        <v>82</v>
+      </c>
+      <c r="B83" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C83" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="D83" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="E83" s="64">
+        <v>1</v>
+      </c>
+      <c r="F83" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N85)^2+(Table1[[#This Row],[petal_width]]-O85)^2)</f>
+        <v>4.0314389490602487</v>
+      </c>
+      <c r="H83" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>56</v>
+      </c>
+      <c r="I83" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="J83" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="86">
+        <v>83</v>
+      </c>
+      <c r="B84" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C84" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D84" s="64">
+        <v>3.9</v>
+      </c>
+      <c r="E84" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="F84" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N86)^2+(Table1[[#This Row],[petal_width]]-O86)^2)</f>
+        <v>4.1788156216803829</v>
+      </c>
+      <c r="H84" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>59</v>
+      </c>
+      <c r="I84" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.45</v>
+      </c>
+      <c r="J84" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="86">
+        <v>84</v>
+      </c>
+      <c r="B85" s="87">
+        <v>6</v>
+      </c>
+      <c r="C85" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D85" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E85" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="F85" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N87)^2+(Table1[[#This Row],[petal_width]]-O87)^2)</f>
+        <v>5.3909646632119559</v>
+      </c>
+      <c r="H85" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>108</v>
+      </c>
+      <c r="I85" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.85</v>
+      </c>
+      <c r="J85" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="87">
+        <v>5.4</v>
+      </c>
+      <c r="C86" s="64">
+        <v>3</v>
+      </c>
+      <c r="D86" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E86" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N88)^2+(Table1[[#This Row],[petal_width]]-O88)^2)</f>
+        <v>4.9246827308974934</v>
+      </c>
+      <c r="H86" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>90</v>
+      </c>
+      <c r="I86" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="J86" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="86">
+        <v>86</v>
+      </c>
+      <c r="B87" s="87">
+        <v>6</v>
+      </c>
+      <c r="C87" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D87" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E87" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="F87" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N89)^2+(Table1[[#This Row],[petal_width]]-O89)^2)</f>
+        <v>4.8705749147302937</v>
+      </c>
+      <c r="H87" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>87</v>
+      </c>
+      <c r="I87" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.8500000000000005</v>
+      </c>
+      <c r="J87" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="86">
+        <v>87</v>
+      </c>
+      <c r="B88" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C88" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D88" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="E88" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N90)^2+(Table1[[#This Row],[petal_width]]-O90)^2)</f>
+        <v>4.9459579456360121</v>
+      </c>
+      <c r="H88" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>93</v>
+      </c>
+      <c r="I88" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="J88" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="86">
+        <v>88</v>
+      </c>
+      <c r="B89" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C89" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D89" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E89" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F89" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N91)^2+(Table1[[#This Row],[petal_width]]-O91)^2)</f>
+        <v>4.6273642605699417</v>
+      </c>
+      <c r="H89" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>77</v>
+      </c>
+      <c r="I89" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.3500000000000012</v>
+      </c>
+      <c r="J89" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="86">
+        <v>89</v>
+      </c>
+      <c r="B90" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C90" s="64">
+        <v>3</v>
+      </c>
+      <c r="D90" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E90" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F90" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N92)^2+(Table1[[#This Row],[petal_width]]-O92)^2)</f>
+        <v>4.4466279358633098</v>
+      </c>
+      <c r="H90" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>69</v>
+      </c>
+      <c r="I90" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="J90" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="86">
+        <v>90</v>
+      </c>
+      <c r="B91" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C91" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D91" s="64">
+        <v>4</v>
+      </c>
+      <c r="E91" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F91" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N93)^2+(Table1[[#This Row],[petal_width]]-O93)^2)</f>
+        <v>4.38092455995307</v>
+      </c>
+      <c r="H91" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>65</v>
+      </c>
+      <c r="I91" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="J91" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="86">
+        <v>91</v>
+      </c>
+      <c r="B92" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="C92" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="D92" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E92" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="F92" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N94)^2+(Table1[[#This Row],[petal_width]]-O94)^2)</f>
+        <v>4.7183153773354327</v>
+      </c>
+      <c r="H92" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>79</v>
+      </c>
+      <c r="I92" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000008</v>
+      </c>
+      <c r="J92" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="86">
+        <v>92</v>
+      </c>
+      <c r="B93" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C93" s="64">
+        <v>3</v>
+      </c>
+      <c r="D93" s="64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E93" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F93" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N95)^2+(Table1[[#This Row],[petal_width]]-O95)^2)</f>
+        <v>4.8520614175832524</v>
+      </c>
+      <c r="H93" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>86</v>
+      </c>
+      <c r="I93" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000006</v>
+      </c>
+      <c r="J93" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="86">
+        <v>93</v>
+      </c>
+      <c r="B94" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C94" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="D94" s="64">
+        <v>4</v>
+      </c>
+      <c r="E94" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="F94" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N96)^2+(Table1[[#This Row],[petal_width]]-O96)^2)</f>
+        <v>4.2746344872983002</v>
+      </c>
+      <c r="H94" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>63</v>
+      </c>
+      <c r="I94" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.45</v>
+      </c>
+      <c r="J94" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="86">
+        <v>94</v>
+      </c>
+      <c r="B95" s="87">
+        <v>5</v>
+      </c>
+      <c r="C95" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D95" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="E95" s="64">
+        <v>1</v>
+      </c>
+      <c r="F95" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N97)^2+(Table1[[#This Row],[petal_width]]-O97)^2)</f>
+        <v>3.8707234465923808</v>
+      </c>
+      <c r="H95" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>53</v>
+      </c>
+      <c r="I95" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.45</v>
+      </c>
+      <c r="J95" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="86">
+        <v>95</v>
+      </c>
+      <c r="B96" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C96" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D96" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="E96" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F96" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N98)^2+(Table1[[#This Row],[petal_width]]-O98)^2)</f>
+        <v>4.5323834789214388</v>
+      </c>
+      <c r="H96" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>74</v>
+      </c>
+      <c r="I96" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000008</v>
+      </c>
+      <c r="J96" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="86">
+        <v>96</v>
+      </c>
+      <c r="B97" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C97" s="64">
+        <v>3</v>
+      </c>
+      <c r="D97" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="E97" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="F97" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N99)^2+(Table1[[#This Row],[petal_width]]-O99)^2)</f>
+        <v>4.4880396611438274</v>
+      </c>
+      <c r="H97" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>70</v>
+      </c>
+      <c r="I97" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.6500000000000006</v>
+      </c>
+      <c r="J97" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="86">
+        <v>97</v>
+      </c>
+      <c r="B98" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C98" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D98" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="E98" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F98" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N100)^2+(Table1[[#This Row],[petal_width]]-O100)^2)</f>
+        <v>4.5113745133828118</v>
+      </c>
+      <c r="H98" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>72</v>
+      </c>
+      <c r="I98" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="J98" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="86">
+        <v>98</v>
+      </c>
+      <c r="B99" s="87">
+        <v>6.2</v>
+      </c>
+      <c r="C99" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D99" s="64">
+        <v>4.3</v>
+      </c>
+      <c r="E99" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F99" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N101)^2+(Table1[[#This Row],[petal_width]]-O101)^2)</f>
+        <v>4.5224440295044008</v>
+      </c>
+      <c r="H99" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>73</v>
+      </c>
+      <c r="I99" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.05</v>
+      </c>
+      <c r="J99" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="86">
+        <v>99</v>
+      </c>
+      <c r="B100" s="87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C100" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D100" s="64">
+        <v>3</v>
+      </c>
+      <c r="E100" s="64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F100" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N102)^2+(Table1[[#This Row],[petal_width]]-O102)^2)</f>
+        <v>3.5822478976195944</v>
+      </c>
+      <c r="H100" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>51</v>
+      </c>
+      <c r="I100" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.35</v>
+      </c>
+      <c r="J100" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="86">
+        <v>100</v>
+      </c>
+      <c r="B101" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C101" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D101" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E101" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="F101" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N103)^2+(Table1[[#This Row],[petal_width]]-O103)^2)</f>
+        <v>4.4161634933503082</v>
+      </c>
+      <c r="H101" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>68</v>
+      </c>
+      <c r="I101" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="J101" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="86">
+        <v>101</v>
+      </c>
+      <c r="B102" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C102" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D102" s="64">
+        <v>6</v>
+      </c>
+      <c r="E102" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="F102" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N104)^2+(Table1[[#This Row],[petal_width]]-O104)^2)</f>
+        <v>6.5354800894808029</v>
+      </c>
+      <c r="H102" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>142</v>
+      </c>
+      <c r="I102" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="J102" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="86">
+        <v>102</v>
+      </c>
+      <c r="B103" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C103" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D103" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E103" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="F103" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N105)^2+(Table1[[#This Row],[petal_width]]-O105)^2)</f>
+        <v>5.5165659608129403</v>
+      </c>
+      <c r="H103" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>113</v>
+      </c>
+      <c r="I103" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.35</v>
+      </c>
+      <c r="J103" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="86">
+        <v>103</v>
+      </c>
+      <c r="B104" s="87">
+        <v>7.1</v>
+      </c>
+      <c r="C104" s="64">
+        <v>3</v>
+      </c>
+      <c r="D104" s="64">
+        <v>5.9</v>
+      </c>
+      <c r="E104" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N106)^2+(Table1[[#This Row],[petal_width]]-O106)^2)</f>
+        <v>6.2803264246374964</v>
+      </c>
+      <c r="H104" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>138</v>
+      </c>
+      <c r="I104" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="J104" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="86">
+        <v>104</v>
+      </c>
+      <c r="B105" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C105" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D105" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E105" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F105" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N107)^2+(Table1[[#This Row],[petal_width]]-O107)^2)</f>
+        <v>5.8976690310664264</v>
+      </c>
+      <c r="H105" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>126</v>
+      </c>
+      <c r="I105" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.3500000000000005</v>
+      </c>
+      <c r="J105" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="86">
+        <v>105</v>
+      </c>
+      <c r="B106" s="87">
+        <v>6.5</v>
+      </c>
+      <c r="C106" s="64">
+        <v>3</v>
+      </c>
+      <c r="D106" s="64">
+        <v>5.8</v>
+      </c>
+      <c r="E106" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F106" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G106" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N108)^2+(Table1[[#This Row],[petal_width]]-O108)^2)</f>
+        <v>6.2114813048096673</v>
+      </c>
+      <c r="H106" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>136</v>
+      </c>
+      <c r="I106" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.8500000000000005</v>
+      </c>
+      <c r="J106" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="86">
+        <v>106</v>
+      </c>
+      <c r="B107" s="87">
+        <v>7.6</v>
+      </c>
+      <c r="C107" s="64">
+        <v>3</v>
+      </c>
+      <c r="D107" s="64">
+        <v>6.6</v>
+      </c>
+      <c r="E107" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F107" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N109)^2+(Table1[[#This Row],[petal_width]]-O109)^2)</f>
+        <v>6.9887409452633174</v>
+      </c>
+      <c r="H107" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>147</v>
+      </c>
+      <c r="I107" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>4.25</v>
+      </c>
+      <c r="J107" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="86">
+        <v>107</v>
+      </c>
+      <c r="B108" s="87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C108" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D108" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="E108" s="64">
+        <v>1.7</v>
+      </c>
+      <c r="F108" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N110)^2+(Table1[[#This Row],[petal_width]]-O110)^2)</f>
+        <v>5.1422271439523168</v>
+      </c>
+      <c r="H108" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>97</v>
+      </c>
+      <c r="I108" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J108" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="86">
+        <v>108</v>
+      </c>
+      <c r="B109" s="87">
+        <v>7.3</v>
+      </c>
+      <c r="C109" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="D109" s="64">
+        <v>6.3</v>
+      </c>
+      <c r="E109" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F109" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N111)^2+(Table1[[#This Row],[petal_width]]-O111)^2)</f>
+        <v>6.5812232905440915</v>
+      </c>
+      <c r="H109" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>143</v>
+      </c>
+      <c r="I109" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.25</v>
+      </c>
+      <c r="J109" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="86">
+        <v>109</v>
+      </c>
+      <c r="B110" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C110" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D110" s="64">
+        <v>5.8</v>
+      </c>
+      <c r="E110" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F110" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N112)^2+(Table1[[#This Row],[petal_width]]-O112)^2)</f>
+        <v>6.0780342216871404</v>
+      </c>
+      <c r="H110" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>131</v>
+      </c>
+      <c r="I110" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.25</v>
+      </c>
+      <c r="J110" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="86">
+        <v>110</v>
+      </c>
+      <c r="B111" s="87">
+        <v>7.2</v>
+      </c>
+      <c r="C111" s="64">
+        <v>3.6</v>
+      </c>
+      <c r="D111" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="E111" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="F111" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G111" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N113)^2+(Table1[[#This Row],[petal_width]]-O113)^2)</f>
+        <v>6.6657707731364413</v>
+      </c>
+      <c r="H111" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>145</v>
+      </c>
+      <c r="I111" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J111" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="86">
+        <v>111</v>
+      </c>
+      <c r="B112" s="87">
+        <v>6.5</v>
+      </c>
+      <c r="C112" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D112" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E112" s="64">
+        <v>2</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G112" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N114)^2+(Table1[[#This Row],[petal_width]]-O114)^2)</f>
+        <v>5.5002272680317494</v>
+      </c>
+      <c r="H112" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>112</v>
+      </c>
+      <c r="I112" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="J112" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="86">
+        <v>112</v>
+      </c>
+      <c r="B113" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C113" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D113" s="64">
+        <v>5.3</v>
+      </c>
+      <c r="E113" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G113" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N115)^2+(Table1[[#This Row],[petal_width]]-O115)^2)</f>
+        <v>5.6384838387637508</v>
+      </c>
+      <c r="H113" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>117</v>
+      </c>
+      <c r="I113" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9499999999999997</v>
+      </c>
+      <c r="J113" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="86">
+        <v>113</v>
+      </c>
+      <c r="B114" s="87">
+        <v>6.8</v>
+      </c>
+      <c r="C114" s="64">
+        <v>3</v>
+      </c>
+      <c r="D114" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="E114" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N116)^2+(Table1[[#This Row],[petal_width]]-O116)^2)</f>
+        <v>5.89342854372563</v>
+      </c>
+      <c r="H114" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>125</v>
+      </c>
+      <c r="I114" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.35</v>
+      </c>
+      <c r="J114" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="86">
+        <v>114</v>
+      </c>
+      <c r="B115" s="87">
+        <v>5.7</v>
+      </c>
+      <c r="C115" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D115" s="64">
+        <v>5</v>
+      </c>
+      <c r="E115" s="64">
+        <v>2</v>
+      </c>
+      <c r="F115" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N117)^2+(Table1[[#This Row],[petal_width]]-O117)^2)</f>
+        <v>5.4829280498653272</v>
+      </c>
+      <c r="H115" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>111</v>
+      </c>
+      <c r="I115" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J115" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="86">
+        <v>115</v>
+      </c>
+      <c r="B116" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C116" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D116" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E116" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G116" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N118)^2+(Table1[[#This Row],[petal_width]]-O118)^2)</f>
+        <v>5.7081082680692026</v>
+      </c>
+      <c r="H116" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>119</v>
+      </c>
+      <c r="I116" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.85</v>
+      </c>
+      <c r="J116" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="86">
+        <v>116</v>
+      </c>
+      <c r="B117" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C117" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D117" s="64">
+        <v>5.3</v>
+      </c>
+      <c r="E117" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F117" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N119)^2+(Table1[[#This Row],[petal_width]]-O119)^2)</f>
+        <v>5.8028010477699477</v>
+      </c>
+      <c r="H117" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>121</v>
+      </c>
+      <c r="I117" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="J117" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="86">
+        <v>117</v>
+      </c>
+      <c r="B118" s="87">
+        <v>6.5</v>
+      </c>
+      <c r="C118" s="64">
+        <v>3</v>
+      </c>
+      <c r="D118" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="E118" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F118" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G118" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N120)^2+(Table1[[#This Row],[petal_width]]-O120)^2)</f>
+        <v>5.7959037259084969</v>
+      </c>
+      <c r="H118" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>120</v>
+      </c>
+      <c r="I118" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="J118" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="86">
+        <v>118</v>
+      </c>
+      <c r="B119" s="87">
+        <v>7.7</v>
+      </c>
+      <c r="C119" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D119" s="64">
+        <v>6.7</v>
+      </c>
+      <c r="E119" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F119" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G119" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N121)^2+(Table1[[#This Row],[petal_width]]-O121)^2)</f>
+        <v>7.1994791478272928</v>
+      </c>
+      <c r="H119" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>149</v>
+      </c>
+      <c r="I119" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="J119" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="86">
+        <v>119</v>
+      </c>
+      <c r="B120" s="87">
+        <v>7.7</v>
+      </c>
+      <c r="C120" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="D120" s="64">
+        <v>6.9</v>
+      </c>
+      <c r="E120" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F120" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N122)^2+(Table1[[#This Row],[petal_width]]-O122)^2)</f>
+        <v>7.3431941278982951</v>
+      </c>
+      <c r="H120" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>150</v>
+      </c>
+      <c r="I120" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>4.75</v>
+      </c>
+      <c r="J120" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="86">
+        <v>120</v>
+      </c>
+      <c r="B121" s="87">
+        <v>6</v>
+      </c>
+      <c r="C121" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D121" s="64">
+        <v>5</v>
+      </c>
+      <c r="E121" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F121" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G121" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N123)^2+(Table1[[#This Row],[petal_width]]-O123)^2)</f>
+        <v>5.2955169719301249</v>
+      </c>
+      <c r="H121" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>105</v>
+      </c>
+      <c r="I121" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="J121" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="86">
+        <v>121</v>
+      </c>
+      <c r="B122" s="87">
+        <v>6.9</v>
+      </c>
+      <c r="C122" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D122" s="64">
+        <v>5.7</v>
+      </c>
+      <c r="E122" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F122" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N124)^2+(Table1[[#This Row],[petal_width]]-O124)^2)</f>
+        <v>6.1662387238899532</v>
+      </c>
+      <c r="H122" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>135</v>
+      </c>
+      <c r="I122" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.0500000000000007</v>
+      </c>
+      <c r="J122" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="86">
+        <v>122</v>
+      </c>
+      <c r="B123" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="C123" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D123" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E123" s="64">
+        <v>2</v>
+      </c>
+      <c r="F123" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G123" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N125)^2+(Table1[[#This Row],[petal_width]]-O125)^2)</f>
+        <v>5.4057839394485612</v>
+      </c>
+      <c r="H123" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>109</v>
+      </c>
+      <c r="I123" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.4500000000000011</v>
+      </c>
+      <c r="J123" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="86">
+        <v>123</v>
+      </c>
+      <c r="B124" s="87">
+        <v>7.7</v>
+      </c>
+      <c r="C124" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D124" s="64">
+        <v>6.7</v>
+      </c>
+      <c r="E124" s="64">
+        <v>2</v>
+      </c>
+      <c r="F124" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N126)^2+(Table1[[#This Row],[petal_width]]-O126)^2)</f>
+        <v>7.0634623238182561</v>
+      </c>
+      <c r="H124" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>148</v>
+      </c>
+      <c r="I124" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J124" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="86">
+        <v>124</v>
+      </c>
+      <c r="B125" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C125" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D125" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E125" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F125" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N127)^2+(Table1[[#This Row],[petal_width]]-O127)^2)</f>
+        <v>5.2356947962997245</v>
+      </c>
+      <c r="H125" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>102</v>
+      </c>
+      <c r="I125" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.5500000000000009</v>
+      </c>
+      <c r="J125" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="86">
+        <v>125</v>
+      </c>
+      <c r="B126" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C126" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D126" s="64">
+        <v>5.7</v>
+      </c>
+      <c r="E126" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F126" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N128)^2+(Table1[[#This Row],[petal_width]]-O128)^2)</f>
+        <v>6.0993852149212548</v>
+      </c>
+      <c r="H126" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>132</v>
+      </c>
+      <c r="I126" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.7500000000000004</v>
+      </c>
+      <c r="J126" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="86">
+        <v>126</v>
+      </c>
+      <c r="B127" s="87">
+        <v>7.2</v>
+      </c>
+      <c r="C127" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D127" s="64">
+        <v>6</v>
+      </c>
+      <c r="E127" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F127" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G127" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N129)^2+(Table1[[#This Row],[petal_width]]-O129)^2)</f>
+        <v>6.300198409574099</v>
+      </c>
+      <c r="H127" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>139</v>
+      </c>
+      <c r="I127" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="J127" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="86">
+        <v>127</v>
+      </c>
+      <c r="B128" s="87">
+        <v>6.2</v>
+      </c>
+      <c r="C128" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D128" s="64">
+        <v>4.8</v>
+      </c>
+      <c r="E128" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F128" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G128" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N130)^2+(Table1[[#This Row],[petal_width]]-O130)^2)</f>
+        <v>5.1509707822894901</v>
+      </c>
+      <c r="H128" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>99</v>
+      </c>
+      <c r="I128" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.55</v>
+      </c>
+      <c r="J128" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="86">
+        <v>128</v>
+      </c>
+      <c r="B129" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C129" s="64">
+        <v>3</v>
+      </c>
+      <c r="D129" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E129" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F129" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G129" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N131)^2+(Table1[[#This Row],[petal_width]]-O131)^2)</f>
+        <v>5.2604657588468351</v>
+      </c>
+      <c r="H129" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>103</v>
+      </c>
+      <c r="I129" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000013</v>
+      </c>
+      <c r="J129" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="86">
+        <v>129</v>
+      </c>
+      <c r="B130" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C130" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D130" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E130" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F130" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G130" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N132)^2+(Table1[[#This Row],[petal_width]]-O132)^2)</f>
+        <v>5.988530704605262</v>
+      </c>
+      <c r="H130" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>128</v>
+      </c>
+      <c r="I130" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="J130" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="86">
+        <v>130</v>
+      </c>
+      <c r="B131" s="87">
+        <v>7.2</v>
+      </c>
+      <c r="C131" s="64">
+        <v>3</v>
+      </c>
+      <c r="D131" s="64">
+        <v>5.8</v>
+      </c>
+      <c r="E131" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="F131" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N133)^2+(Table1[[#This Row],[petal_width]]-O133)^2)</f>
+        <v>6.0425574056023663</v>
+      </c>
+      <c r="H131" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>130</v>
+      </c>
+      <c r="I131" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="J131" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="86">
+        <v>131</v>
+      </c>
+      <c r="B132" s="87">
+        <v>7.4</v>
+      </c>
+      <c r="C132" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D132" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="E132" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="F132" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N134)^2+(Table1[[#This Row],[petal_width]]-O134)^2)</f>
+        <v>6.4274800660912197</v>
+      </c>
+      <c r="H132" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>141</v>
+      </c>
+      <c r="I132" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.15</v>
+      </c>
+      <c r="J132" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="86">
+        <v>132</v>
+      </c>
+      <c r="B133" s="87">
+        <v>7.9</v>
+      </c>
+      <c r="C133" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="D133" s="64">
+        <v>6.4</v>
+      </c>
+      <c r="E133" s="64">
+        <v>2</v>
+      </c>
+      <c r="F133" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N135)^2+(Table1[[#This Row],[petal_width]]-O135)^2)</f>
+        <v>6.8922057427212664</v>
+      </c>
+      <c r="H133" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>146</v>
+      </c>
+      <c r="I133" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="J133" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="86">
+        <v>133</v>
+      </c>
+      <c r="B134" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C134" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D134" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E134" s="64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F134" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G134" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N136)^2+(Table1[[#This Row],[petal_width]]-O136)^2)</f>
+        <v>6.02432568840696</v>
+      </c>
+      <c r="H134" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>129</v>
+      </c>
+      <c r="I134" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J134" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="86">
+        <v>134</v>
+      </c>
+      <c r="B135" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C135" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D135" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E135" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="F135" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G135" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N137)^2+(Table1[[#This Row],[petal_width]]-O137)^2)</f>
+        <v>5.3312756447214396</v>
+      </c>
+      <c r="H135" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>106</v>
+      </c>
+      <c r="I135" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="J135" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="86">
+        <v>135</v>
+      </c>
+      <c r="B136" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="C136" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="D136" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E136" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="F136" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N138)^2+(Table1[[#This Row],[petal_width]]-O138)^2)</f>
+        <v>5.8053854307875197</v>
+      </c>
+      <c r="H136" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>122</v>
+      </c>
+      <c r="I136" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.3500000000000005</v>
+      </c>
+      <c r="J136" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="86">
+        <v>136</v>
+      </c>
+      <c r="B137" s="87">
+        <v>7.7</v>
+      </c>
+      <c r="C137" s="64">
+        <v>3</v>
+      </c>
+      <c r="D137" s="64">
+        <v>6.1</v>
+      </c>
+      <c r="E137" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F137" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G137" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N139)^2+(Table1[[#This Row],[petal_width]]-O139)^2)</f>
+        <v>6.6001893912220426</v>
+      </c>
+      <c r="H137" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>144</v>
+      </c>
+      <c r="I137" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>4.05</v>
+      </c>
+      <c r="J137" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="86">
+        <v>137</v>
+      </c>
+      <c r="B138" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C138" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D138" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E138" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="F138" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G138" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N140)^2+(Table1[[#This Row],[petal_width]]-O140)^2)</f>
+        <v>6.1402361518104493</v>
+      </c>
+      <c r="H138" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>134</v>
+      </c>
+      <c r="I138" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.45</v>
+      </c>
+      <c r="J138" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="86">
+        <v>138</v>
+      </c>
+      <c r="B139" s="87">
+        <v>6.4</v>
+      </c>
+      <c r="C139" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D139" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="E139" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F139" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G139" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N141)^2+(Table1[[#This Row],[petal_width]]-O141)^2)</f>
+        <v>5.8053854307875206</v>
+      </c>
+      <c r="H139" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>123</v>
+      </c>
+      <c r="I139" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.3500000000000005</v>
+      </c>
+      <c r="J139" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="86">
+        <v>139</v>
+      </c>
+      <c r="B140" s="87">
+        <v>6</v>
+      </c>
+      <c r="C140" s="64">
+        <v>3</v>
+      </c>
+      <c r="D140" s="64">
+        <v>4.8</v>
+      </c>
+      <c r="E140" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="F140" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G140" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N142)^2+(Table1[[#This Row],[petal_width]]-O142)^2)</f>
+        <v>5.1800096525006598</v>
+      </c>
+      <c r="H140" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>100</v>
+      </c>
+      <c r="I140" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000004</v>
+      </c>
+      <c r="J140" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="86">
+        <v>140</v>
+      </c>
+      <c r="B141" s="87">
+        <v>6.9</v>
+      </c>
+      <c r="C141" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D141" s="64">
+        <v>5.4</v>
+      </c>
+      <c r="E141" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F141" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G141" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N143)^2+(Table1[[#This Row],[petal_width]]-O143)^2)</f>
+        <v>5.8079686638273111</v>
+      </c>
+      <c r="H141" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>124</v>
+      </c>
+      <c r="I141" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.4500000000000011</v>
+      </c>
+      <c r="J141" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="86">
+        <v>141</v>
+      </c>
+      <c r="B142" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C142" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D142" s="64">
+        <v>5.6</v>
+      </c>
+      <c r="E142" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="F142" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G142" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N144)^2+(Table1[[#This Row],[petal_width]]-O144)^2)</f>
+        <v>6.1026633529959682</v>
+      </c>
+      <c r="H142" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>133</v>
+      </c>
+      <c r="I142" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="J142" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="86">
+        <v>142</v>
+      </c>
+      <c r="B143" s="87">
+        <v>6.9</v>
+      </c>
+      <c r="C143" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="D143" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E143" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F143" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G143" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N145)^2+(Table1[[#This Row],[petal_width]]-O145)^2)</f>
+        <v>5.6091443197692819</v>
+      </c>
+      <c r="H143" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>116</v>
+      </c>
+      <c r="I143" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.35</v>
+      </c>
+      <c r="J143" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="86">
+        <v>143</v>
+      </c>
+      <c r="B144" s="87">
+        <v>5.8</v>
+      </c>
+      <c r="C144" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="D144" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E144" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="F144" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G144" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N146)^2+(Table1[[#This Row],[petal_width]]-O146)^2)</f>
+        <v>5.5165659608129403</v>
+      </c>
+      <c r="H144" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>113</v>
+      </c>
+      <c r="I144" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.35</v>
+      </c>
+      <c r="J144" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="86">
+        <v>144</v>
+      </c>
+      <c r="B145" s="87">
+        <v>6.8</v>
+      </c>
+      <c r="C145" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="D145" s="64">
+        <v>5.9</v>
+      </c>
+      <c r="E145" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F145" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N147)^2+(Table1[[#This Row],[petal_width]]-O147)^2)</f>
+        <v>6.3492125496001472</v>
+      </c>
+      <c r="H145" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>140</v>
+      </c>
+      <c r="I145" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="J145" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="86">
+        <v>145</v>
+      </c>
+      <c r="B146" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C146" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D146" s="64">
+        <v>5.7</v>
+      </c>
+      <c r="E146" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="F146" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N148)^2+(Table1[[#This Row],[petal_width]]-O148)^2)</f>
+        <v>6.2483997951475549</v>
+      </c>
+      <c r="H146" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>137</v>
+      </c>
+      <c r="I146" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="J146" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="86">
+        <v>146</v>
+      </c>
+      <c r="B147" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="C147" s="64">
+        <v>3</v>
+      </c>
+      <c r="D147" s="64">
+        <v>5.2</v>
+      </c>
+      <c r="E147" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F147" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G147" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N149)^2+(Table1[[#This Row],[petal_width]]-O149)^2)</f>
+        <v>5.6914409423273469</v>
+      </c>
+      <c r="H147" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>118</v>
+      </c>
+      <c r="I147" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="J147" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="86">
+        <v>147</v>
+      </c>
+      <c r="B148" s="87">
+        <v>6.3</v>
+      </c>
+      <c r="C148" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="D148" s="64">
+        <v>5</v>
+      </c>
+      <c r="E148" s="64">
+        <v>1.9</v>
+      </c>
+      <c r="F148" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G148" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N150)^2+(Table1[[#This Row],[petal_width]]-O150)^2)</f>
+        <v>5.3695903009447568</v>
+      </c>
+      <c r="H148" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>107</v>
+      </c>
+      <c r="I148" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>1.9500000000000006</v>
+      </c>
+      <c r="J148" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="86">
+        <v>148</v>
+      </c>
+      <c r="B149" s="87">
+        <v>6.5</v>
+      </c>
+      <c r="C149" s="64">
+        <v>3</v>
+      </c>
+      <c r="D149" s="64">
+        <v>5.2</v>
+      </c>
+      <c r="E149" s="64">
+        <v>2</v>
+      </c>
+      <c r="F149" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G149" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N151)^2+(Table1[[#This Row],[petal_width]]-O151)^2)</f>
+        <v>5.5805465682135473</v>
+      </c>
+      <c r="H149" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>115</v>
+      </c>
+      <c r="I149" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.0500000000000007</v>
+      </c>
+      <c r="J149" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="86">
+        <v>149</v>
+      </c>
+      <c r="B150" s="87">
+        <v>6.2</v>
+      </c>
+      <c r="C150" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="D150" s="64">
+        <v>5.4</v>
+      </c>
+      <c r="E150" s="64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F150" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G150" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N152)^2+(Table1[[#This Row],[petal_width]]-O152)^2)</f>
+        <v>5.9264238795415238</v>
+      </c>
+      <c r="H150" s="65">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>127</v>
+      </c>
+      <c r="I150" s="88">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="J150" s="89">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="97">
+        <v>150</v>
+      </c>
+      <c r="B151" s="98">
+        <v>5.9</v>
+      </c>
+      <c r="C151" s="99">
+        <v>3</v>
+      </c>
+      <c r="D151" s="99">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E151" s="99">
+        <v>1.8</v>
+      </c>
+      <c r="F151" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="G151" s="82">
+        <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-N153)^2+(Table1[[#This Row],[petal_width]]-O153)^2)</f>
+        <v>5.4728877203903972</v>
+      </c>
+      <c r="H151" s="100">
+        <f>RANK(Table1[[#This Row],[Euclidean
+Distance]],Table1[Euclidean
+Distance],1)</f>
+        <v>110</v>
+      </c>
+      <c r="I151" s="101">
+        <f>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</f>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="J151" s="102">
+        <f>RANK(Table1[[#This Row],[Manhattan
+Distance]],Table1[Manhattan
+Distance],1)</f>
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:G151">
+    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H151">
+    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I151">
+    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J151">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ClassWork.xlsx
+++ b/ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\AEC MCA Project Guidance 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD977E85-31F3-46BC-B1EB-CBE81D3ED91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798741F4-ADC7-4ED9-BAC2-A771AF047D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation &amp; Regression-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Decision Tree" sheetId="3" r:id="rId3"/>
     <sheet name="K-NN" sheetId="4" r:id="rId4"/>
     <sheet name="K-NN (Iris)" sheetId="5" r:id="rId5"/>
+    <sheet name="K-Means Clustering" sheetId="6" r:id="rId6"/>
+    <sheet name="Hierarchical Clustering " sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="176">
   <si>
     <t>Student</t>
   </si>
@@ -517,6 +519,120 @@
   <si>
     <t>Manhattan Distance Metric</t>
   </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Var-1</t>
+  </si>
+  <si>
+    <t>Var-2</t>
+  </si>
+  <si>
+    <t>From C1-1</t>
+  </si>
+  <si>
+    <t>From C2-1</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>From C1-2</t>
+  </si>
+  <si>
+    <t>From C2-2</t>
+  </si>
+  <si>
+    <t>From C1-3</t>
+  </si>
+  <si>
+    <t>From C2-3</t>
+  </si>
+  <si>
+    <t>C1-1</t>
+  </si>
+  <si>
+    <t>C2-1</t>
+  </si>
+  <si>
+    <t>C1-2</t>
+  </si>
+  <si>
+    <t>C2-2</t>
+  </si>
+  <si>
+    <t>C1-3</t>
+  </si>
+  <si>
+    <t>C2-3</t>
+  </si>
+  <si>
+    <t>New Data Point</t>
+  </si>
+  <si>
+    <t>From C1</t>
+  </si>
+  <si>
+    <t>From C2</t>
+  </si>
+  <si>
+    <t>Cluster No.</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering Example</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MI/TO</t>
+  </si>
+  <si>
+    <t>TO/MI</t>
+  </si>
+  <si>
+    <t>NA/RM</t>
+  </si>
+  <si>
+    <t>BA/(NA/RM)</t>
+  </si>
+  <si>
+    <t>FI/(TO/MI)</t>
+  </si>
+  <si>
+    <t>BA: Buenos Aires (Argentina), British Airways (airline), Bachelor of Arts (degree)</t>
+  </si>
+  <si>
+    <t>NA: North America (continent), National Archives (organization), North Atlantic (ocean)</t>
+  </si>
+  <si>
+    <t>RM: Rome (Italy), Royal Mail (postal service in the UK), Records Management (industry term)</t>
+  </si>
+  <si>
+    <t>FI: Finland (country), Financial Institution (industry term), Federated States of Micronesia (country)</t>
+  </si>
+  <si>
+    <t>TO: Toronto (Canada), Time Out (magazine), Take Out (food service)</t>
+  </si>
+  <si>
+    <t>MI: Michigan (state in the USA), Military Intelligence (industry term), Migraine (health condition)</t>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +642,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -626,8 +742,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,8 +796,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1332,6 +1494,17 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1343,12 +1516,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,6 +1755,176 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,69 +1934,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DCE96155-F8A9-49BE-804E-8124D67109A9}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1636,6 +1979,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1697,6 +2050,184 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1726,6 +2257,51 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3253,6 +3829,1359 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Var1-Var2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88BB-471D-BC49-F9DE68029ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C1-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88BB-471D-BC49-F9DE68029ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C2-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88BB-471D-BC49-F9DE68029ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C1-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-88BB-471D-BC49-F9DE68029ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>C2-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-88BB-471D-BC49-F9DE68029ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1107707951"/>
+        <c:axId val="76378480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1107707951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76378480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76378480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107707951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Means</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B8A-4539-9DB5-1E384DB1DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B8A-4539-9DB5-1E384DB1DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Centroid-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B8A-4539-9DB5-1E384DB1DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Centroid-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B8A-4539-9DB5-1E384DB1DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Test Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means Clustering'!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B8A-4539-9DB5-1E384DB1DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1097046015"/>
+        <c:axId val="82710192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1097046015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Var-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82710192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82710192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Var-2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097046015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3294,6 +5223,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3813,6 +5822,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4992,8 +8033,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8757E151-2A29-BE93-793F-5DCBC222EF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC1E6A5-73D6-C5D8-2CB9-A20F0C44F02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6F7548-1447-456C-A22D-ED5629296087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1291589" y="541020"/>
+          <a:ext cx="6600825" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{347CD793-1786-4691-BEE1-A0A238848D33}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{347CD793-1786-4691-BEE1-A0A238848D33}" name="Table1" displayName="Table1" ref="A1:J151" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="A1:J151" xr:uid="{62B4E930-DFF6-4BF0-9F1C-5E4C67D47D9A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5010,30 +8203,45 @@
     <sortCondition ref="A2:A151"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DCC5E6E9-10E2-45A1-9E4A-21753386754D}" name="Serial" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{84F58DDE-1AC9-4448-A0D7-7F8B46013990}" name="sepal_length" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0A30CA16-679A-4849-8558-59FF9746E226}" name="sepal_width" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{1BF596E4-5900-423E-89A7-8C1203F7DA05}" name="petal_length" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{62E749D1-BAF4-493A-97A1-5F52039FC271}" name="petal_width" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5CFB4761-E06F-4EA0-866B-EB531BA29B9C}" name="species" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{7960BDB6-4F97-404E-B7A4-8766C752AA01}" name="Euclidean_x000a_Distance" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{DCC5E6E9-10E2-45A1-9E4A-21753386754D}" name="Serial" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{84F58DDE-1AC9-4448-A0D7-7F8B46013990}" name="sepal_length" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0A30CA16-679A-4849-8558-59FF9746E226}" name="sepal_width" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{1BF596E4-5900-423E-89A7-8C1203F7DA05}" name="petal_length" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{62E749D1-BAF4-493A-97A1-5F52039FC271}" name="petal_width" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{5CFB4761-E06F-4EA0-866B-EB531BA29B9C}" name="species" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{7960BDB6-4F97-404E-B7A4-8766C752AA01}" name="Euclidean_x000a_Distance" dataDxfId="23">
       <calculatedColumnFormula>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{33B10DC6-F2AA-4343-A4BE-A5D55D675CD6}" name="Rank" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{33B10DC6-F2AA-4343-A4BE-A5D55D675CD6}" name="Rank" dataDxfId="22">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Euclidean
 Distance]],Table1[Euclidean
 Distance],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1A9C4685-567A-43D9-8CA3-F85B562C802D}" name="Manhattan_x000a_Distance" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{1A9C4685-567A-43D9-8CA3-F85B562C802D}" name="Manhattan_x000a_Distance" dataDxfId="21">
       <calculatedColumnFormula>ABS(Table1[[#This Row],[sepal_length]]-$L$4)+ABS(Table1[[#This Row],[sepal_width]]-$M$4)+ABS(Table1[[#This Row],[petal_length]]-$N$4)+ABS(Table1[[#This Row],[petal_width]]-$O$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8792689E-8EBC-4E65-9BFD-AA30C7514647}" name="Rank2" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{8792689E-8EBC-4E65-9BFD-AA30C7514647}" name="Rank2" dataDxfId="20">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[Manhattan
 Distance]],Table1[Manhattan
 Distance],1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24960F9C-4C41-4EAD-B152-F88F8B145908}" name="Table13" displayName="Table13" ref="M3:S9" headerRowDxfId="19" totalsRowDxfId="16" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{736A5C3A-526B-46C5-A204-DC12013C9B30}" name="Distance" totalsRowLabel="Total" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{B8B40E0D-3B07-41F3-AA61-9F9269D445EB}" name="BA" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{455333A5-C0FA-405A-A657-DCE00ADB46F2}" name="FI" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6B9F51A1-5826-4A36-8121-4D17953AEB6F}" name="MI" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CBFE70B7-0442-4A7E-85EC-148926130C86}" name="NA" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0476D6C2-FB17-4788-B2E5-E06A3DEEC98E}" name="RM" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{61D5EB56-F7F4-47D8-8151-74B7C905175B}" name="TO" totalsRowFunction="sum" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8046,10 +11254,10 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="100"/>
+      <c r="I61" s="168"/>
       <c r="T61" s="12" t="s">
         <v>110</v>
       </c>
@@ -8132,7 +11340,7 @@
     <mergeCell ref="H61:I61"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:AC17">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$AC4="No - 0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8147,7 +11355,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8192,11 +11400,11 @@
       <c r="H1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
@@ -8674,16 +11882,16 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="top10" dxfId="9" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F16">
-    <cfRule type="top10" dxfId="8" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G16">
-    <cfRule type="top10" dxfId="7" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16">
-    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="4" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -8695,8 +11903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED75BC4-6749-44B6-B9A1-6CFB6A06C887}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8789,13 +11997,13 @@
 Distance],1)</f>
         <v>134</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
     </row>
     <row r="3" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="83">
@@ -8816,7 +12024,7 @@
       <c r="F3" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="103">
+      <c r="G3" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.504639781775011</v>
       </c>
@@ -8871,7 +12079,7 @@
       <c r="F4" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7057387927375562</v>
       </c>
@@ -8929,7 +12137,7 @@
       <c r="F5" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.603123644839294</v>
       </c>
@@ -8969,7 +12177,7 @@
       <c r="F6" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5485912697858004</v>
       </c>
@@ -9015,7 +12223,7 @@
       <c r="F7" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1595094555959156</v>
       </c>
@@ -9061,7 +12269,7 @@
       <c r="F8" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6827299656640586</v>
       </c>
@@ -9101,7 +12309,7 @@
       <c r="F9" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.429650127928503</v>
       </c>
@@ -9141,7 +12349,7 @@
       <c r="F10" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="103">
+      <c r="G10" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7805422891431855</v>
       </c>
@@ -9181,7 +12389,7 @@
       <c r="F11" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
@@ -9221,7 +12429,7 @@
       <c r="F12" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3230257296626515</v>
       </c>
@@ -9261,7 +12469,7 @@
       <c r="F13" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4601300553591909</v>
       </c>
@@ -9301,7 +12509,7 @@
       <c r="F14" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5947878936037378</v>
       </c>
@@ -9341,7 +12549,7 @@
       <c r="F15" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>4.0966449687518685</v>
       </c>
@@ -9381,7 +12589,7 @@
       <c r="F16" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="103">
+      <c r="G16" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5316426772820599</v>
       </c>
@@ -9421,7 +12629,7 @@
       <c r="F17" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4194297770242335</v>
       </c>
@@ -9461,7 +12669,7 @@
       <c r="F18" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="103">
+      <c r="G18" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.473110997362451</v>
       </c>
@@ -9501,7 +12709,7 @@
       <c r="F19" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4427459970204017</v>
       </c>
@@ -9541,7 +12749,7 @@
       <c r="F20" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="103">
+      <c r="G20" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0499999999999994</v>
       </c>
@@ -9581,7 +12789,7 @@
       <c r="F21" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="103">
+      <c r="G21" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4441980198589044</v>
       </c>
@@ -9621,7 +12829,7 @@
       <c r="F22" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0923292192132448</v>
       </c>
@@ -9661,7 +12869,7 @@
       <c r="F23" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3811980125393428</v>
       </c>
@@ -9701,7 +12909,7 @@
       <c r="F24" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>4.0537020117418594</v>
       </c>
@@ -9741,7 +12949,7 @@
       <c r="F25" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1020154738492196</v>
       </c>
@@ -9781,7 +12989,7 @@
       <c r="F26" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2499999999999996</v>
       </c>
@@ -9821,7 +13029,7 @@
       <c r="F27" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="103">
+      <c r="G27" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3003787661418498</v>
       </c>
@@ -9861,7 +13069,7 @@
       <c r="F28" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="103">
+      <c r="G28" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2821486864552618</v>
       </c>
@@ -9901,7 +13109,7 @@
       <c r="F29" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3559648389099666</v>
       </c>
@@ -9941,7 +13149,7 @@
       <c r="F30" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="103">
+      <c r="G30" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4135758377396566</v>
       </c>
@@ -9981,7 +13189,7 @@
       <c r="F31" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G31" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4846090168051851</v>
       </c>
@@ -10021,7 +13229,7 @@
       <c r="F32" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="103">
+      <c r="G32" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.416504061171302</v>
       </c>
@@ -10061,7 +13269,7 @@
       <c r="F33" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="103">
+      <c r="G33" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1752952618614851</v>
       </c>
@@ -10101,7 +13309,7 @@
       <c r="F34" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="103">
+      <c r="G34" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5766604535516082</v>
       </c>
@@ -10141,7 +13349,7 @@
       <c r="F35" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="103">
+      <c r="G35" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.538714455844099</v>
       </c>
@@ -10181,7 +13389,7 @@
       <c r="F36" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="103">
+      <c r="G36" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
@@ -10221,7 +13429,7 @@
       <c r="F37" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="103">
+      <c r="G37" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6321481247328</v>
       </c>
@@ -10261,7 +13469,7 @@
       <c r="F38" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="103">
+      <c r="G38" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3959534743573858</v>
       </c>
@@ -10301,7 +13509,7 @@
       <c r="F39" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="103">
+      <c r="G39" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4759890678769398</v>
       </c>
@@ -10341,7 +13549,7 @@
       <c r="F40" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="103">
+      <c r="G40" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.8577843381920665</v>
       </c>
@@ -10381,7 +13589,7 @@
       <c r="F41" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="103">
+      <c r="G41" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3811980125393424</v>
       </c>
@@ -10421,7 +13629,7 @@
       <c r="F42" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="103">
+      <c r="G42" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5682628826923612</v>
       </c>
@@ -10461,7 +13669,7 @@
       <c r="F43" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="103">
+      <c r="G43" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.7845078940332519</v>
       </c>
@@ -10501,7 +13709,7 @@
       <c r="F44" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="103">
+      <c r="G44" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.8758869952566983</v>
       </c>
@@ -10541,7 +13749,7 @@
       <c r="F45" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G45" s="103">
+      <c r="G45" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.2422985673746951</v>
       </c>
@@ -10581,7 +13789,7 @@
       <c r="F46" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="103">
+      <c r="G46" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.1164884084494848</v>
       </c>
@@ -10621,7 +13829,7 @@
       <c r="F47" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="103">
+      <c r="G47" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.5217183305880666</v>
       </c>
@@ -10661,7 +13869,7 @@
       <c r="F48" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="103">
+      <c r="G48" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.4062442660502197</v>
       </c>
@@ -10701,7 +13909,7 @@
       <c r="F49" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="103">
+      <c r="G49" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.6868007811651551</v>
       </c>
@@ -10741,7 +13949,7 @@
       <c r="F50" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="103">
+      <c r="G50" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.3634060117684275</v>
       </c>
@@ -10781,7 +13989,7 @@
       <c r="F51" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="103">
+      <c r="G51" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.488911004883902</v>
       </c>
@@ -10821,7 +14029,7 @@
       <c r="F52" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="103">
+      <c r="G52" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.81394102980498584</v>
       </c>
@@ -10861,7 +14069,7 @@
       <c r="F53" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G53" s="103">
+      <c r="G53" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.67268120235368578</v>
       </c>
@@ -10901,7 +14109,7 @@
       <c r="F54" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="103">
+      <c r="G54" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.89582364335844655</v>
       </c>
@@ -10941,7 +14149,7 @@
       <c r="F55" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="103">
+      <c r="G55" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.300961183125769</v>
       </c>
@@ -10981,7 +14189,7 @@
       <c r="F56" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="103">
+      <c r="G56" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.54083269131959844</v>
       </c>
@@ -11021,7 +14229,7 @@
       <c r="F57" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="103">
+      <c r="G57" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0965856099730655</v>
       </c>
@@ -11061,7 +14269,7 @@
       <c r="F58" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="103">
+      <c r="G58" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.91241437954473337</v>
       </c>
@@ -11101,7 +14309,7 @@
       <c r="F59" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="103">
+      <c r="G59" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0621590627301281</v>
       </c>
@@ -11141,7 +14349,7 @@
       <c r="F60" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G60" s="103">
+      <c r="G60" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.56789083458002743</v>
       </c>
@@ -11181,7 +14389,7 @@
       <c r="F61" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="103">
+      <c r="G61" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.517399090549352</v>
       </c>
@@ -11221,7 +14429,7 @@
       <c r="F62" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="103">
+      <c r="G62" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0155644370746373</v>
       </c>
@@ -11261,7 +14469,7 @@
       <c r="F63" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="103">
+      <c r="G63" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.84409715080670644</v>
       </c>
@@ -11301,7 +14509,7 @@
       <c r="F64" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="103">
+      <c r="G64" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0259142264341596</v>
       </c>
@@ -11341,7 +14549,7 @@
       <c r="F65" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="103">
+      <c r="G65" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.86746757864487434</v>
       </c>
@@ -11381,7 +14589,7 @@
       <c r="F66" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="103">
+      <c r="G66" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2338962679253069</v>
       </c>
@@ -11421,7 +14629,7 @@
       <c r="F67" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="103">
+      <c r="G67" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.47169905660283074</v>
       </c>
@@ -11461,7 +14669,7 @@
       <c r="F68" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G68" s="103">
+      <c r="G68" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.196870920358583</v>
       </c>
@@ -11501,7 +14709,7 @@
       <c r="F69" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="103">
+      <c r="G69" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0307764064044154</v>
       </c>
@@ -11541,7 +14749,7 @@
       <c r="F70" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="103">
+      <c r="G70" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.84409715080670666</v>
       </c>
@@ -11581,7 +14789,7 @@
       <c r="F71" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G71" s="103">
+      <c r="G71" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2134661099511601</v>
       </c>
@@ -11621,7 +14829,7 @@
       <c r="F72" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="103">
+      <c r="G72" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.1926860441876563</v>
       </c>
@@ -11661,7 +14869,7 @@
       <c r="F73" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G73" s="103">
+      <c r="G73" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.64226162893325689</v>
       </c>
@@ -11701,7 +14909,7 @@
       <c r="F74" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G74" s="103">
+      <c r="G74" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.92870878105033627</v>
       </c>
@@ -11741,7 +14949,7 @@
       <c r="F75" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="103">
+      <c r="G75" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.90138781886599806</v>
       </c>
@@ -11781,7 +14989,7 @@
       <c r="F76" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G76" s="103">
+      <c r="G76" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.43874821936960601</v>
       </c>
@@ -11821,7 +15029,7 @@
       <c r="F77" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G77" s="103">
+      <c r="G77" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.41533119314590439</v>
       </c>
@@ -11861,7 +15069,7 @@
       <c r="F78" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G78" s="103">
+      <c r="G78" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.71589105316381774</v>
       </c>
@@ -11901,7 +15109,7 @@
       <c r="F79" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G79" s="103">
+      <c r="G79" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.95524865872714027</v>
       </c>
@@ -11941,7 +15149,7 @@
       <c r="F80" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="103">
+      <c r="G80" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.82006097334283656</v>
       </c>
@@ -11981,7 +15189,7 @@
       <c r="F81" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="103">
+      <c r="G81" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2776932339180636</v>
       </c>
@@ -12021,7 +15229,7 @@
       <c r="F82" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="103">
+      <c r="G82" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3462912017836262</v>
       </c>
@@ -12061,7 +15269,7 @@
       <c r="F83" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G83" s="103">
+      <c r="G83" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188139</v>
       </c>
@@ -12101,7 +15309,7 @@
       <c r="F84" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G84" s="103">
+      <c r="G84" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.97082439194738024</v>
       </c>
@@ -12141,7 +15349,7 @@
       <c r="F85" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G85" s="103">
+      <c r="G85" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2257650672131264</v>
       </c>
@@ -12181,7 +15389,7 @@
       <c r="F86" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G86" s="103">
+      <c r="G86" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.382931668593933</v>
       </c>
@@ -12221,7 +15429,7 @@
       <c r="F87" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G87" s="103">
+      <c r="G87" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0404326023342407</v>
       </c>
@@ -12261,7 +15469,7 @@
       <c r="F88" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G88" s="103">
+      <c r="G88" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.69462219947249071</v>
       </c>
@@ -12301,7 +15509,7 @@
       <c r="F89" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G89" s="103">
+      <c r="G89" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.70178344238091062</v>
       </c>
@@ -12341,7 +15549,7 @@
       <c r="F90" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G90" s="103">
+      <c r="G90" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.1456439237389604</v>
       </c>
@@ -12381,7 +15589,7 @@
       <c r="F91" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="103">
+      <c r="G91" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2459935794377115</v>
       </c>
@@ -12421,7 +15629,7 @@
       <c r="F92" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G92" s="103">
+      <c r="G92" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.28160056179763</v>
       </c>
@@ -12461,7 +15669,7 @@
       <c r="F93" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G93" s="103">
+      <c r="G93" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.82613558209291571</v>
       </c>
@@ -12501,7 +15709,7 @@
       <c r="F94" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G94" s="103">
+      <c r="G94" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.96566039579139862</v>
       </c>
@@ -12541,7 +15749,7 @@
       <c r="F95" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G95" s="103">
+      <c r="G95" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9956202043475106</v>
       </c>
@@ -12581,7 +15789,7 @@
       <c r="F96" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G96" s="103">
+      <c r="G96" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.123610252712212</v>
       </c>
@@ -12621,7 +15829,7 @@
       <c r="F97" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G97" s="103">
+      <c r="G97" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0781929326423914</v>
       </c>
@@ -12661,7 +15869,7 @@
       <c r="F98" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G98" s="103">
+      <c r="G98" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0356157588603989</v>
       </c>
@@ -12701,7 +15909,7 @@
       <c r="F99" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G99" s="103">
+      <c r="G99" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.59371710435189584</v>
       </c>
@@ -12741,7 +15949,7 @@
       <c r="F100" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G100" s="103">
+      <c r="G100" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9981241202688089</v>
       </c>
@@ -12781,7 +15989,7 @@
       <c r="F101" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G101" s="103">
+      <c r="G101" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0210288928331068</v>
       </c>
@@ -12821,7 +16029,7 @@
       <c r="F102" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G102" s="103">
+      <c r="G102" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.2522211259110421</v>
       </c>
@@ -12861,7 +16069,7 @@
       <c r="F103" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G103" s="103">
+      <c r="G103" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188141</v>
       </c>
@@ -12901,7 +16109,7 @@
       <c r="F104" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="103">
+      <c r="G104" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9551214796017158</v>
       </c>
@@ -12941,7 +16149,7 @@
       <c r="F105" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="103">
+      <c r="G105" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5882380174268591</v>
       </c>
@@ -12981,7 +16189,7 @@
       <c r="F106" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G106" s="103">
+      <c r="G106" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8661457606521525</v>
       </c>
@@ -13021,7 +16229,7 @@
       <c r="F107" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G107" s="103">
+      <c r="G107" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.7354158733179856</v>
       </c>
@@ -13061,7 +16269,7 @@
       <c r="F108" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G108" s="103">
+      <c r="G108" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8714967272212899</v>
       </c>
@@ -13101,7 +16309,7 @@
       <c r="F109" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G109" s="103">
+      <c r="G109" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.3048861143232218</v>
       </c>
@@ -13141,7 +16349,7 @@
       <c r="F110" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G110" s="103">
+      <c r="G110" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7442763542512409</v>
       </c>
@@ -13181,7 +16389,7 @@
       <c r="F111" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G111" s="103">
+      <c r="G111" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.4438698819699876</v>
       </c>
@@ -13221,7 +16429,7 @@
       <c r="F112" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G112" s="103">
+      <c r="G112" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2216791722870617</v>
       </c>
@@ -13261,7 +16469,7 @@
       <c r="F113" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G113" s="103">
+      <c r="G113" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3009611831257688</v>
       </c>
@@ -13301,7 +16509,7 @@
       <c r="F114" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G114" s="103">
+      <c r="G114" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5467708298258023</v>
       </c>
@@ -13341,7 +16549,7 @@
       <c r="F115" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G115" s="103">
+      <c r="G115" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4568802284333466</v>
       </c>
@@ -13381,7 +16589,7 @@
       <c r="F116" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G116" s="103">
+      <c r="G116" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6194134740701649</v>
       </c>
@@ -13421,7 +16629,7 @@
       <c r="F117" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G117" s="103">
+      <c r="G117" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5402921800749363</v>
       </c>
@@ -13461,7 +16669,7 @@
       <c r="F118" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G118" s="103">
+      <c r="G118" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4671400751121213</v>
       </c>
@@ -13501,7 +16709,7 @@
       <c r="F119" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G119" s="103">
+      <c r="G119" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0581857366746061</v>
       </c>
@@ -13541,7 +16749,7 @@
       <c r="F120" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G120" s="103">
+      <c r="G120" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>3.0826125283596713</v>
       </c>
@@ -13581,7 +16789,7 @@
       <c r="F121" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G121" s="103">
+      <c r="G121" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2658988901172166</v>
       </c>
@@ -13621,7 +16829,7 @@
       <c r="F122" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G122" s="103">
+      <c r="G122" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.8553975315279476</v>
       </c>
@@ -13661,7 +16869,7 @@
       <c r="F123" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G123" s="103">
+      <c r="G123" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4500000000000008</v>
       </c>
@@ -13701,7 +16909,7 @@
       <c r="F124" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G124" s="103">
+      <c r="G124" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.8306359709436326</v>
       </c>
@@ -13741,7 +16949,7 @@
       <c r="F125" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G125" s="103">
+      <c r="G125" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.94472218138455999</v>
       </c>
@@ -13781,7 +16989,7 @@
       <c r="F126" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G126" s="103">
+      <c r="G126" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7951323071016247</v>
       </c>
@@ -13821,7 +17029,7 @@
       <c r="F127" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G127" s="103">
+      <c r="G127" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0377683872314836</v>
       </c>
@@ -13861,7 +17069,7 @@
       <c r="F128" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G128" s="103">
+      <c r="G128" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>0.91241437954473303</v>
       </c>
@@ -13901,7 +17109,7 @@
       <c r="F129" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G129" s="103">
+      <c r="G129" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0735455276791952</v>
       </c>
@@ -13941,7 +17149,7 @@
       <c r="F130" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G130" s="103">
+      <c r="G130" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6439282222773595</v>
       </c>
@@ -13981,7 +17189,7 @@
       <c r="F131" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G131" s="103">
+      <c r="G131" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7923448328934923</v>
       </c>
@@ -14021,7 +17229,7 @@
       <c r="F132" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G132" s="103">
+      <c r="G132" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.1569654610122995</v>
       </c>
@@ -14061,7 +17269,7 @@
       <c r="F133" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G133" s="103">
+      <c r="G133" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.8429737951659004</v>
       </c>
@@ -14101,7 +17309,7 @@
       <c r="F134" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G134" s="103">
+      <c r="G134" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.6830032679706834</v>
       </c>
@@ -14141,7 +17349,7 @@
       <c r="F135" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G135" s="103">
+      <c r="G135" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0781929326423914</v>
       </c>
@@ -14181,7 +17389,7 @@
       <c r="F136" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G136" s="103">
+      <c r="G136" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.625576820700886</v>
       </c>
@@ -14221,7 +17429,7 @@
       <c r="F137" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G137" s="103">
+      <c r="G137" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.3879907872519106</v>
       </c>
@@ -14261,7 +17469,7 @@
       <c r="F138" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G138" s="103">
+      <c r="G138" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.9085334683992314</v>
       </c>
@@ -14301,7 +17509,7 @@
       <c r="F139" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G139" s="103">
+      <c r="G139" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.5041608956491328</v>
       </c>
@@ -14341,7 +17549,7 @@
       <c r="F140" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G140" s="103">
+      <c r="G140" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.0641898326896384</v>
       </c>
@@ -14381,7 +17589,7 @@
       <c r="F141" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G141" s="103">
+      <c r="G141" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4874474780643525</v>
       </c>
@@ -14421,7 +17629,7 @@
       <c r="F142" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G142" s="103">
+      <c r="G142" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7839562774911273</v>
       </c>
@@ -14461,7 +17669,7 @@
       <c r="F143" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G143" s="103">
+      <c r="G143" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3425721582097552</v>
       </c>
@@ -14501,7 +17709,7 @@
       <c r="F144" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G144" s="103">
+      <c r="G144" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.4044571905188141</v>
       </c>
@@ -14541,7 +17749,7 @@
       <c r="F145" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G145" s="103">
+      <c r="G145" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>2.0229928324143915</v>
       </c>
@@ -14581,7 +17789,7 @@
       <c r="F146" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G146" s="103">
+      <c r="G146" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.965324400703355</v>
       </c>
@@ -14621,7 +17829,7 @@
       <c r="F147" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G147" s="103">
+      <c r="G147" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3829316685939335</v>
       </c>
@@ -14661,7 +17869,7 @@
       <c r="F148" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G148" s="103">
+      <c r="G148" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.092016483392078</v>
       </c>
@@ -14701,7 +17909,7 @@
       <c r="F149" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G149" s="103">
+      <c r="G149" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.2500000000000004</v>
       </c>
@@ -14741,7 +17949,7 @@
       <c r="F150" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G150" s="103">
+      <c r="G150" s="100">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.7327723451163459</v>
       </c>
@@ -14781,7 +17989,7 @@
       <c r="F151" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="G151" s="104">
+      <c r="G151" s="101">
         <f>SQRT((Table1[[#This Row],[sepal_length]]-$L$4)^2+(Table1[[#This Row],[sepal_width]]-$M$4)^2+(Table1[[#This Row],[petal_length]]-$N$4)^2+(Table1[[#This Row],[petal_width]]-$O$4)^2)</f>
         <v>1.3388427838995882</v>
       </c>
@@ -14807,20 +18015,1194 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G151">
-    <cfRule type="top10" dxfId="0" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H151">
-    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I151">
-    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J151">
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5927C5-9BC8-4DDF-8180-73F59C52F05C}">
+  <dimension ref="B1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="12"/>
+    <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="9.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="12"/>
+    <col min="10" max="10" width="9.21875" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="172"/>
+      <c r="H2" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="172"/>
+      <c r="K2" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="172"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="105">
+        <v>1</v>
+      </c>
+      <c r="C4" s="106">
+        <v>1</v>
+      </c>
+      <c r="D4" s="107">
+        <v>1</v>
+      </c>
+      <c r="E4" s="176">
+        <f>SQRT((C4-$C$12)^2 + (D4-$D$12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="179">
+        <f>SQRT((C4-$C$13)^2 + (D4-$D$13)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="G4" s="108" t="str">
+        <f>IF(E4&lt;=F4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H4" s="176">
+        <f>SQRT((C4-$C$14)^2 + (D4-$D$14)^2)</f>
+        <v>1.5723301886761007</v>
+      </c>
+      <c r="I4" s="179">
+        <f>SQRT((C4-$C$15)^2 + (D4-$D$15)^2)</f>
+        <v>5.3764532919016421</v>
+      </c>
+      <c r="J4" s="108" t="str">
+        <f>IF(H4&lt;=I4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K4" s="176">
+        <f>SQRT((C4-$C$16)^2+(D4-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L4" s="179">
+        <f>SQRT((C4-$C$17)^2 + (D4-$D$17)^2)</f>
+        <v>5.0219518117958879</v>
+      </c>
+      <c r="M4" s="108" t="str">
+        <f>IF(K4&lt;=L4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="105">
+        <v>2</v>
+      </c>
+      <c r="C5" s="106">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="107">
+        <v>2</v>
+      </c>
+      <c r="E5" s="177">
+        <f t="shared" ref="E5:E10" si="0">SQRT((C5-$C$12)^2 + (D5-$D$12)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F5" s="182">
+        <f t="shared" ref="F5:F10" si="1">SQRT((C5-$C$13)^2 + (D5-$D$13)^2)</f>
+        <v>6.103277807866851</v>
+      </c>
+      <c r="G5" s="109" t="str">
+        <f t="shared" ref="G5:G10" si="2">IF(E5&lt;=F5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H5" s="178">
+        <f t="shared" ref="H5:H10" si="3">SQRT((C5-$C$14)^2 + (D5-$D$14)^2)</f>
+        <v>0.47140452079103173</v>
+      </c>
+      <c r="I5" s="181">
+        <f t="shared" ref="I5:I10" si="4">SQRT((C5-$C$15)^2 + (D5-$D$15)^2)</f>
+        <v>4.2756578441217679</v>
+      </c>
+      <c r="J5" s="113" t="str">
+        <f t="shared" ref="J5:J10" si="5">IF(H5&lt;=I5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K5" s="178">
+        <f t="shared" ref="K5:K10" si="6">SQRT((C5-$C$16)^2+(D5-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L5" s="181">
+        <f t="shared" ref="L5:L10" si="7">SQRT((C5-$C$17)^2 + (D5-$D$17)^2)</f>
+        <v>3.9204591567825315</v>
+      </c>
+      <c r="M5" s="113" t="str">
+        <f t="shared" ref="M5:M10" si="8">IF(K5&lt;=L5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="105">
+        <v>3</v>
+      </c>
+      <c r="C6" s="106">
+        <v>3</v>
+      </c>
+      <c r="D6" s="107">
+        <v>4</v>
+      </c>
+      <c r="E6" s="178">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F6" s="181">
+        <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G6" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+      <c r="H6" s="177">
+        <f t="shared" si="3"/>
+        <v>2.0344259359556172</v>
+      </c>
+      <c r="I6" s="180">
+        <f t="shared" si="4"/>
+        <v>1.7765838004439869</v>
+      </c>
+      <c r="J6" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K6" s="177">
+        <f t="shared" si="6"/>
+        <v>3.0516389039334255</v>
+      </c>
+      <c r="L6" s="180">
+        <f t="shared" si="7"/>
+        <v>1.4212670403551892</v>
+      </c>
+      <c r="M6" s="109" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="105">
+        <v>4</v>
+      </c>
+      <c r="C7" s="106">
+        <v>5</v>
+      </c>
+      <c r="D7" s="107">
+        <v>7</v>
+      </c>
+      <c r="E7" s="177">
+        <f t="shared" si="0"/>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="F7" s="180">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="109" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H7" s="177">
+        <f t="shared" si="3"/>
+        <v>5.6396414385628768</v>
+      </c>
+      <c r="I7" s="180">
+        <f t="shared" si="4"/>
+        <v>1.845602882529175</v>
+      </c>
+      <c r="J7" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K7" s="177">
+        <f t="shared" si="6"/>
+        <v>6.656763477847174</v>
+      </c>
+      <c r="L7" s="180">
+        <f t="shared" si="7"/>
+        <v>2.1954498400100153</v>
+      </c>
+      <c r="M7" s="109" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="105">
+        <v>5</v>
+      </c>
+      <c r="C8" s="106">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="107">
+        <v>5</v>
+      </c>
+      <c r="E8" s="177">
+        <f t="shared" si="0"/>
+        <v>4.7169905660283016</v>
+      </c>
+      <c r="F8" s="180">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="109" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H8" s="177">
+        <f t="shared" si="3"/>
+        <v>3.1446603773522015</v>
+      </c>
+      <c r="I8" s="180">
+        <f t="shared" si="4"/>
+        <v>0.72886898685566259</v>
+      </c>
+      <c r="J8" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K8" s="177">
+        <f t="shared" si="6"/>
+        <v>4.1608292442733097</v>
+      </c>
+      <c r="L8" s="180">
+        <f t="shared" si="7"/>
+        <v>0.41231056256176585</v>
+      </c>
+      <c r="M8" s="109" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="105">
+        <v>6</v>
+      </c>
+      <c r="C9" s="106">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="107">
+        <v>5</v>
+      </c>
+      <c r="E9" s="177">
+        <f t="shared" si="0"/>
+        <v>5.315072906367325</v>
+      </c>
+      <c r="F9" s="180">
+        <f t="shared" si="1"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="G9" s="109" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H9" s="177">
+        <f t="shared" si="3"/>
+        <v>3.7712361663282534</v>
+      </c>
+      <c r="I9" s="180">
+        <f t="shared" si="4"/>
+        <v>0.5303300858899106</v>
+      </c>
+      <c r="J9" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K9" s="177">
+        <f t="shared" si="6"/>
+        <v>4.7762432936356998</v>
+      </c>
+      <c r="L9" s="180">
+        <f t="shared" si="7"/>
+        <v>0.60827625302982202</v>
+      </c>
+      <c r="M9" s="109" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="110">
+        <v>7</v>
+      </c>
+      <c r="C10" s="111">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="112">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="178">
+        <f t="shared" si="0"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="F10" s="181">
+        <f t="shared" si="1"/>
+        <v>2.9154759474226504</v>
+      </c>
+      <c r="G10" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H10" s="178">
+        <f t="shared" si="3"/>
+        <v>2.733536577809454</v>
+      </c>
+      <c r="I10" s="181">
+        <f t="shared" si="4"/>
+        <v>1.0752906583803283</v>
+      </c>
+      <c r="J10" s="113" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K10" s="178">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="L10" s="181">
+        <f t="shared" si="7"/>
+        <v>0.72111025509279758</v>
+      </c>
+      <c r="M10" s="113" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="115">
+        <v>1</v>
+      </c>
+      <c r="D12" s="116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="111">
+        <v>5</v>
+      </c>
+      <c r="D13" s="117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="115">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D14" s="116">
+        <f>AVERAGE(D4:D6)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="111">
+        <f>AVERAGE(C7:C10)</f>
+        <v>4.125</v>
+      </c>
+      <c r="D15" s="117">
+        <f>AVERAGE(D7:D10)</f>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="106">
+        <f>AVERAGE(C4:C5)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="118">
+        <f>AVERAGE(D4:D5)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="111">
+        <f>AVERAGE(C6:C10)</f>
+        <v>3.9</v>
+      </c>
+      <c r="D17" s="117">
+        <f>AVERAGE(D6:D10)</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="173"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="122">
+        <v>3</v>
+      </c>
+      <c r="C21" s="123">
+        <v>3</v>
+      </c>
+      <c r="D21" s="123">
+        <f>SQRT((B21-C16)^2+(C21-D16)^2)</f>
+        <v>2.3048861143232218</v>
+      </c>
+      <c r="E21" s="123">
+        <f>SQRT((B21-$C$17)^2+(C21-D17)^2)</f>
+        <v>2.2847319317591719</v>
+      </c>
+      <c r="F21" s="124" t="str">
+        <f>IF(D21&lt;=E21,"Cluster-1","Cluster-2")</f>
+        <v>Cluster-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14:D15 C16:D17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CBDD3D-75CD-478C-AFD6-9628BDA926C8}">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="8.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="12"/>
+    <col min="9" max="10" width="12.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="12"/>
+    <col min="14" max="15" width="12.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+    </row>
+    <row r="2" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+    </row>
+    <row r="3" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="M3" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" s="129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="M4" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="131">
+        <v>0</v>
+      </c>
+      <c r="O4" s="132">
+        <v>662</v>
+      </c>
+      <c r="P4" s="132">
+        <v>877</v>
+      </c>
+      <c r="Q4" s="132">
+        <v>255</v>
+      </c>
+      <c r="R4" s="132">
+        <v>412</v>
+      </c>
+      <c r="S4" s="133">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="M5" s="134" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="135">
+        <v>662</v>
+      </c>
+      <c r="O5" s="136">
+        <v>0</v>
+      </c>
+      <c r="P5" s="136">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="136">
+        <v>468</v>
+      </c>
+      <c r="R5" s="136">
+        <v>268</v>
+      </c>
+      <c r="S5" s="137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="M6" s="134" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="135">
+        <v>877</v>
+      </c>
+      <c r="O6" s="136">
+        <v>295</v>
+      </c>
+      <c r="P6" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="136">
+        <v>754</v>
+      </c>
+      <c r="R6" s="136">
+        <v>564</v>
+      </c>
+      <c r="S6" s="138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="M7" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="135">
+        <v>255</v>
+      </c>
+      <c r="O7" s="136">
+        <v>468</v>
+      </c>
+      <c r="P7" s="136">
+        <v>754</v>
+      </c>
+      <c r="Q7" s="136">
+        <v>0</v>
+      </c>
+      <c r="R7" s="136">
+        <v>219</v>
+      </c>
+      <c r="S7" s="137">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="M8" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="135">
+        <v>412</v>
+      </c>
+      <c r="O8" s="136">
+        <v>268</v>
+      </c>
+      <c r="P8" s="136">
+        <v>564</v>
+      </c>
+      <c r="Q8" s="136">
+        <v>219</v>
+      </c>
+      <c r="R8" s="136">
+        <v>0</v>
+      </c>
+      <c r="S8" s="137">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="M9" s="139" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="140">
+        <v>996</v>
+      </c>
+      <c r="O9" s="141">
+        <v>400</v>
+      </c>
+      <c r="P9" s="142">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="141">
+        <v>869</v>
+      </c>
+      <c r="R9" s="141">
+        <v>669</v>
+      </c>
+      <c r="S9" s="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+    </row>
+    <row r="12" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="M12" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="147" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="M13" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="149">
+        <v>0</v>
+      </c>
+      <c r="O13" s="150">
+        <v>662</v>
+      </c>
+      <c r="P13" s="150">
+        <v>877</v>
+      </c>
+      <c r="Q13" s="150">
+        <v>255</v>
+      </c>
+      <c r="R13" s="151">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="M14" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="135">
+        <v>662</v>
+      </c>
+      <c r="O14" s="136">
+        <v>0</v>
+      </c>
+      <c r="P14" s="136">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="136">
+        <v>468</v>
+      </c>
+      <c r="R14" s="153">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="M15" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" s="154">
+        <v>877</v>
+      </c>
+      <c r="O15" s="155">
+        <v>295</v>
+      </c>
+      <c r="P15" s="155">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="155">
+        <v>754</v>
+      </c>
+      <c r="R15" s="156">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="M16" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" s="135">
+        <v>255</v>
+      </c>
+      <c r="O16" s="136">
+        <v>468</v>
+      </c>
+      <c r="P16" s="136">
+        <v>754</v>
+      </c>
+      <c r="Q16" s="136">
+        <v>0</v>
+      </c>
+      <c r="R16" s="157">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="M17" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="159">
+        <v>412</v>
+      </c>
+      <c r="O17" s="160">
+        <v>268</v>
+      </c>
+      <c r="P17" s="160">
+        <v>564</v>
+      </c>
+      <c r="Q17" s="161">
+        <v>219</v>
+      </c>
+      <c r="R17" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="149">
+        <v>0</v>
+      </c>
+      <c r="E21" s="150">
+        <v>662</v>
+      </c>
+      <c r="F21" s="150">
+        <v>877</v>
+      </c>
+      <c r="G21" s="163">
+        <v>255</v>
+      </c>
+      <c r="I21" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="149">
+        <v>0</v>
+      </c>
+      <c r="K21" s="150">
+        <v>268</v>
+      </c>
+      <c r="L21" s="150">
+        <v>564</v>
+      </c>
+      <c r="N21" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" s="149">
+        <v>0</v>
+      </c>
+      <c r="P21" s="150">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="135">
+        <v>662</v>
+      </c>
+      <c r="E22" s="136">
+        <v>0</v>
+      </c>
+      <c r="F22" s="136">
+        <v>295</v>
+      </c>
+      <c r="G22" s="136">
+        <v>268</v>
+      </c>
+      <c r="I22" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="135">
+        <v>268</v>
+      </c>
+      <c r="K22" s="136">
+        <v>0</v>
+      </c>
+      <c r="L22" s="164">
+        <v>295</v>
+      </c>
+      <c r="N22" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" s="135">
+        <v>268</v>
+      </c>
+      <c r="P22" s="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="154">
+        <v>877</v>
+      </c>
+      <c r="E23" s="155">
+        <v>295</v>
+      </c>
+      <c r="F23" s="155">
+        <v>0</v>
+      </c>
+      <c r="G23" s="155">
+        <v>564</v>
+      </c>
+      <c r="I23" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="154">
+        <v>564</v>
+      </c>
+      <c r="K23" s="165">
+        <v>295</v>
+      </c>
+      <c r="L23" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="166">
+        <v>255</v>
+      </c>
+      <c r="E24" s="136">
+        <v>268</v>
+      </c>
+      <c r="F24" s="136">
+        <v>564</v>
+      </c>
+      <c r="G24" s="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="167" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="167" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="167" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ClassWork.xlsx
+++ b/ClassWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\AEC MCA Project Guidance 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798741F4-ADC7-4ED9-BAC2-A771AF047D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A1E4A-870D-410D-B2EC-19F193FBBEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{602B5501-FAFD-4D5E-95FC-59515F3768D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation &amp; Regression-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <sheet name="K-NN (Iris)" sheetId="5" r:id="rId5"/>
     <sheet name="K-Means Clustering" sheetId="6" r:id="rId6"/>
     <sheet name="Hierarchical Clustering " sheetId="7" r:id="rId7"/>
+    <sheet name="ROC" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="197">
   <si>
     <t>Student</t>
   </si>
@@ -633,6 +637,69 @@
   <si>
     <t>MI: Michigan (state in the USA), Military Intelligence (industry term), Migraine (health condition)</t>
   </si>
+  <si>
+    <t>ROC Calculation Details</t>
+  </si>
+  <si>
+    <t>BCY</t>
+  </si>
+  <si>
+    <t>BCYH</t>
+  </si>
+  <si>
+    <t>X-Axis</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>Y-Axis</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>Diff = TPR - FPR</t>
+  </si>
+  <si>
+    <t>False Positive Rate (FPR=FP/N=FP/(FP+TN))</t>
+  </si>
+  <si>
+    <t>True Positive Rate (TPR=TP/P=TP/(TP+FN))</t>
+  </si>
+  <si>
+    <t>Program Name - ROC Error Analysis.ipynb</t>
+  </si>
+  <si>
+    <t>BCY -&gt; Binary Classification Y</t>
+  </si>
+  <si>
+    <t>BCYH-&gt; Binary Classification Y-Hat</t>
+  </si>
+  <si>
+    <t>X-LL</t>
+  </si>
+  <si>
+    <t>X-UL</t>
+  </si>
+  <si>
+    <t>X-Diff</t>
+  </si>
+  <si>
+    <t>Y-LL</t>
+  </si>
+  <si>
+    <t>Y-UL</t>
+  </si>
+  <si>
+    <t>Y-Diff</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>(AUC)</t>
+  </si>
 </sst>
 </file>
 
@@ -642,7 +709,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -770,8 +837,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,8 +894,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1551,12 +1637,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1925,6 +2061,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1949,13 +2091,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5182,6 +5419,452 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ROC!$E$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ROC!$E$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C54-4B54-8389-83E4FEF854CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1097208560"/>
+        <c:axId val="1042294400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1097208560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positive Rate (FPR=FP/N=FP/(FP+TN))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042294400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042294400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate (TPR=TP/P=TP/(TP+FN))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097208560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8074,15 +8757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8115,15 +8798,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>139699</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>454024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8153,8 +8836,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1291589" y="541020"/>
-          <a:ext cx="6600825" cy="3133725"/>
+          <a:off x="1333499" y="571500"/>
+          <a:ext cx="6600825" cy="3108325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8183,6 +8866,112 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44694</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165589</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BF82CE-205B-4C71-92DC-474E31DA1943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ROC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="15">
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0.16666666666666666</v>
+          </cell>
+          <cell r="G15">
+            <v>0.16666666666666666</v>
+          </cell>
+          <cell r="H15">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="I15">
+            <v>0.5</v>
+          </cell>
+          <cell r="J15">
+            <v>0.5</v>
+          </cell>
+          <cell r="K15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0.2</v>
+          </cell>
+          <cell r="F16">
+            <v>0.2</v>
+          </cell>
+          <cell r="G16">
+            <v>0.6</v>
+          </cell>
+          <cell r="H16">
+            <v>0.8</v>
+          </cell>
+          <cell r="I16">
+            <v>0.8</v>
+          </cell>
+          <cell r="J16">
+            <v>1</v>
+          </cell>
+          <cell r="K16">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8548,9 +9337,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8570,7 +9359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8593,7 +9382,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -8616,7 +9405,7 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -8639,7 +9428,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -8662,7 +9451,7 @@
         <v>5476</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8685,7 +9474,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -8708,7 +9497,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -8731,7 +9520,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="C11">
         <f>SUM(C4:C10)</f>
         <v>57</v>
@@ -8753,7 +9542,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -8771,7 +9560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8790,7 +9579,7 @@
         <v>77.139303482587067</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8809,7 +9598,7 @@
         <v>66.273631840796014</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8828,7 +9617,7 @@
         <v>62.651741293532339</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8840,7 +9629,7 @@
         <v>102.49253731343283</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -8852,7 +9641,7 @@
         <v>-3.6218905472636815</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -8864,7 +9653,7 @@
         <v>102.49253731343283</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -8876,7 +9665,7 @@
         <v>-3.621890547263682</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -8899,7 +9688,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
@@ -8914,7 +9703,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8937,7 +9726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="14.4" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8959,7 +9748,7 @@
         <v>28.769628199652999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -8985,7 +9774,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9013,7 +9802,7 @@
         <v>0.98928820282730667</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +9830,7 @@
         <v>0.97869114825328229</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -9069,7 +9858,7 @@
         <v>0.95738229650656459</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="G9" s="11">
         <f>SUM(G4:G8)</f>
         <v>392.50904917453994</v>
@@ -9081,7 +9870,7 @@
         <v>14.009087214635695</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="14.4" thickBot="1">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -9102,7 +9891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -9118,7 +9907,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="14.4" thickBot="1">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -9137,7 +9926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -9169,7 +9958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="H14" t="s">
         <v>34</v>
       </c>
@@ -9189,7 +9978,7 @@
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="H15" t="s">
         <v>35</v>
       </c>
@@ -9203,7 +9992,7 @@
         <v>196.25452458726932</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="14.4" thickBot="1">
       <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
@@ -9217,8 +10006,8 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="8:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:16" ht="14.4" thickBot="1"/>
+    <row r="18" spans="8:16">
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
         <v>41</v>
@@ -9245,7 +10034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:16">
       <c r="H19" t="s">
         <v>16</v>
       </c>
@@ -9274,7 +10063,7 @@
         <v>253.13503168973631</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:16">
       <c r="H20" t="s">
         <v>24</v>
       </c>
@@ -9303,7 +10092,7 @@
         <v>153.20047464710422</v>
       </c>
     </row>
-    <row r="21" spans="8:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:16" ht="14.4" thickBot="1">
       <c r="H21" s="5" t="s">
         <v>25</v>
       </c>
@@ -9341,9 +10130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D45E3-1A8A-42B5-B91F-6FBACC6F6BB1}">
   <dimension ref="B1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="12" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="12" customWidth="1"/>
@@ -9370,7 +10161,7 @@
     <col min="30" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29">
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -9383,7 +10174,7 @@
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
     </row>
-    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:29" ht="15" thickBot="1">
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -9396,7 +10187,7 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>49</v>
       </c>
@@ -9445,7 +10236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -9494,7 +10285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -9543,7 +10334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B6" s="17">
         <v>3</v>
       </c>
@@ -9592,7 +10383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="17">
         <v>4</v>
       </c>
@@ -9641,7 +10432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -9690,7 +10481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="17">
         <v>6</v>
       </c>
@@ -9739,7 +10530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="17">
         <v>7</v>
       </c>
@@ -9803,7 +10594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="17">
         <v>8</v>
       </c>
@@ -9865,7 +10656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="17">
         <v>9</v>
       </c>
@@ -9925,7 +10716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="17">
         <v>10</v>
       </c>
@@ -9988,7 +10779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B14" s="17">
         <v>11</v>
       </c>
@@ -10050,7 +10841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="17">
         <v>12</v>
       </c>
@@ -10113,7 +10904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="17">
         <v>13</v>
       </c>
@@ -10172,7 +10963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="17">
         <v>14</v>
       </c>
@@ -10235,7 +11026,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:29" ht="15" thickBot="1">
       <c r="H18" s="25" t="s">
         <v>77</v>
       </c>
@@ -10262,7 +11053,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="C19" s="27" t="s">
         <v>90</v>
       </c>
@@ -10314,7 +11105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="C20" s="27" t="s">
         <v>91</v>
       </c>
@@ -10362,7 +11153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="C21" s="27" t="s">
         <v>92</v>
       </c>
@@ -10414,7 +11205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:29" ht="15" thickBot="1">
       <c r="H22" s="30" t="s">
         <v>81</v>
       </c>
@@ -10434,7 +11225,7 @@
       </c>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:29" ht="15" thickBot="1">
       <c r="H23" s="31" t="s">
         <v>53</v>
       </c>
@@ -10447,7 +11238,7 @@
         <v>4.8127030408269267E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29">
       <c r="H24" s="30" t="s">
         <v>70</v>
       </c>
@@ -10467,7 +11258,7 @@
       </c>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:29" ht="15" thickBot="1">
       <c r="H25" s="32" t="s">
         <v>63</v>
       </c>
@@ -10488,7 +11279,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="34"/>
     </row>
-    <row r="27" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="I27" s="19" t="s">
         <v>84</v>
       </c>
@@ -10508,7 +11299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B28" s="15" t="s">
         <v>49</v>
       </c>
@@ -10543,7 +11334,7 @@
         <v>0.79742881581348812</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B29" s="17">
         <v>1</v>
       </c>
@@ -10580,7 +11371,7 @@
       </c>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B30" s="17">
         <v>2</v>
       </c>
@@ -10618,7 +11409,7 @@
       </c>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B31" s="17">
         <v>8</v>
       </c>
@@ -10655,7 +11446,7 @@
       </c>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="2:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:29" ht="18.600000000000001" thickBot="1">
       <c r="B32" s="17">
         <v>9</v>
       </c>
@@ -10686,7 +11477,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B33" s="17">
         <v>11</v>
       </c>
@@ -10723,7 +11514,7 @@
       </c>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" ht="15" thickBot="1">
       <c r="H34" s="30" t="s">
         <v>81</v>
       </c>
@@ -10742,7 +11533,7 @@
       </c>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="15" thickBot="1">
       <c r="H35" s="31" t="s">
         <v>95</v>
       </c>
@@ -10755,7 +11546,7 @@
         <v>0.60065113708752604</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14">
       <c r="H36" s="30" t="s">
         <v>70</v>
       </c>
@@ -10775,7 +11566,7 @@
       </c>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="15" thickBot="1">
       <c r="H37" s="32" t="s">
         <v>63</v>
       </c>
@@ -10796,8 +11587,8 @@
       <c r="M37" s="33"/>
       <c r="N37" s="34"/>
     </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" ht="15" thickBot="1"/>
+    <row r="39" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B39" s="15" t="s">
         <v>49</v>
       </c>
@@ -10817,7 +11608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B40" s="17">
         <v>3</v>
       </c>
@@ -10837,7 +11628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B41" s="17">
         <v>7</v>
       </c>
@@ -10857,7 +11648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B42" s="17">
         <v>12</v>
       </c>
@@ -10877,7 +11668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B43" s="17">
         <v>13</v>
       </c>
@@ -10897,7 +11688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="I44" s="19" t="s">
         <v>84</v>
       </c>
@@ -10917,7 +11708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B45" s="15" t="s">
         <v>49</v>
       </c>
@@ -10952,7 +11743,7 @@
         <v>0.60065113708752604</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B46" s="17">
         <v>4</v>
       </c>
@@ -10990,7 +11781,7 @@
       </c>
       <c r="N46" s="26"/>
     </row>
-    <row r="47" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B47" s="17">
         <v>5</v>
       </c>
@@ -11028,7 +11819,7 @@
       </c>
       <c r="N47" s="26"/>
     </row>
-    <row r="48" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B48" s="17">
         <v>6</v>
       </c>
@@ -11059,7 +11850,7 @@
         <v>0.60065113708752604</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:22" ht="18.600000000000001" thickBot="1">
       <c r="B49" s="17">
         <v>10</v>
       </c>
@@ -11097,7 +11888,7 @@
       </c>
       <c r="N49" s="26"/>
     </row>
-    <row r="50" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:22" ht="18.600000000000001" thickBot="1">
       <c r="B50" s="17">
         <v>14</v>
       </c>
@@ -11135,7 +11926,7 @@
       </c>
       <c r="N50" s="26"/>
     </row>
-    <row r="51" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" ht="15" thickBot="1">
       <c r="H51" s="31" t="s">
         <v>98</v>
       </c>
@@ -11148,7 +11939,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22">
       <c r="H52" s="30" t="s">
         <v>70</v>
       </c>
@@ -11167,7 +11958,7 @@
       </c>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" ht="15" thickBot="1">
       <c r="H53" s="32" t="s">
         <v>63</v>
       </c>
@@ -11187,12 +11978,12 @@
       <c r="M53" s="33"/>
       <c r="N53" s="34"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22">
       <c r="H56" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22">
       <c r="H57" s="35" t="s">
         <v>3</v>
       </c>
@@ -11209,7 +12000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" ht="27.6">
       <c r="H58" s="35" t="s">
         <v>4</v>
       </c>
@@ -11226,7 +12017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" ht="27.6">
       <c r="H59" s="35" t="s">
         <v>36</v>
       </c>
@@ -11244,7 +12035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22">
       <c r="H60" s="35" t="s">
         <v>99</v>
       </c>
@@ -11253,26 +12044,26 @@
         <v>0.39241907388590502</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="H61" s="168" t="s">
+    <row r="61" spans="2:22">
+      <c r="H61" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="168"/>
+      <c r="I61" s="174"/>
       <c r="T61" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" ht="15.6">
       <c r="T62" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" ht="16.2" thickBot="1">
       <c r="T63" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" ht="18.600000000000001" thickBot="1">
       <c r="B64" s="45" t="s">
         <v>113</v>
       </c>
@@ -11295,7 +12086,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B65" s="28">
         <v>1</v>
       </c>
@@ -11315,7 +12106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B66" s="28">
         <v>2</v>
       </c>
@@ -11358,7 +12149,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
@@ -11375,7 +12166,7 @@
     <col min="13" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="29.4" thickBot="1">
       <c r="A1" s="47" t="s">
         <v>115</v>
       </c>
@@ -11400,13 +12191,13 @@
       <c r="H1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -11445,7 +12236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="60">
         <v>2</v>
       </c>
@@ -11487,7 +12278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -11517,7 +12308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="60">
         <v>4</v>
       </c>
@@ -11547,7 +12338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="60">
         <v>5</v>
       </c>
@@ -11577,7 +12368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="60">
         <v>6</v>
       </c>
@@ -11607,7 +12398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="60">
         <v>7</v>
       </c>
@@ -11637,7 +12428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="60">
         <v>8</v>
       </c>
@@ -11667,7 +12458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="60">
         <v>9</v>
       </c>
@@ -11697,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="60">
         <v>10</v>
       </c>
@@ -11727,7 +12518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="60">
         <v>11</v>
       </c>
@@ -11757,7 +12548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="60">
         <v>12</v>
       </c>
@@ -11787,7 +12578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="60">
         <v>13</v>
       </c>
@@ -11817,7 +12608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="60">
         <v>14</v>
       </c>
@@ -11847,7 +12638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="66">
         <v>15</v>
       </c>
@@ -11907,7 +12698,7 @@
       <selection activeCell="L4" sqref="L4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="13.44140625" style="12" customWidth="1"/>
@@ -11926,7 +12717,7 @@
     <col min="17" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="43.8" thickBot="1">
       <c r="A1" s="72" t="s">
         <v>128</v>
       </c>
@@ -11958,7 +12749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -11997,15 +12788,15 @@
 Distance],1)</f>
         <v>134</v>
       </c>
-      <c r="L2" s="170" t="s">
+      <c r="L2" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-    </row>
-    <row r="3" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+    </row>
+    <row r="3" spans="1:17" ht="29.4" thickBot="1">
       <c r="A3" s="83">
         <v>2</v>
       </c>
@@ -12060,7 +12851,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="83">
         <v>3</v>
       </c>
@@ -12118,7 +12909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="83">
         <v>4</v>
       </c>
@@ -12158,7 +12949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="83">
         <v>5</v>
       </c>
@@ -12204,7 +12995,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="83">
         <v>6</v>
       </c>
@@ -12250,7 +13041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="83">
         <v>7</v>
       </c>
@@ -12290,7 +13081,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="83">
         <v>8</v>
       </c>
@@ -12330,7 +13121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="83">
         <v>9</v>
       </c>
@@ -12370,7 +13161,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="83">
         <v>10</v>
       </c>
@@ -12410,7 +13201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="83">
         <v>11</v>
       </c>
@@ -12450,7 +13241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="83">
         <v>12</v>
       </c>
@@ -12490,7 +13281,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="83">
         <v>13</v>
       </c>
@@ -12530,7 +13321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="83">
         <v>14</v>
       </c>
@@ -12570,7 +13361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="83">
         <v>15</v>
       </c>
@@ -12610,7 +13401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="83">
         <v>16</v>
       </c>
@@ -12650,7 +13441,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="83">
         <v>17</v>
       </c>
@@ -12690,7 +13481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="83">
         <v>18</v>
       </c>
@@ -12730,7 +13521,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="83">
         <v>19</v>
       </c>
@@ -12770,7 +13561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="83">
         <v>20</v>
       </c>
@@ -12810,7 +13601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="83">
         <v>21</v>
       </c>
@@ -12850,7 +13641,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="83">
         <v>22</v>
       </c>
@@ -12890,7 +13681,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="83">
         <v>23</v>
       </c>
@@ -12930,7 +13721,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="83">
         <v>24</v>
       </c>
@@ -12970,7 +13761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="83">
         <v>25</v>
       </c>
@@ -13010,7 +13801,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="83">
         <v>26</v>
       </c>
@@ -13050,7 +13841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="83">
         <v>27</v>
       </c>
@@ -13090,7 +13881,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="83">
         <v>28</v>
       </c>
@@ -13130,7 +13921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="83">
         <v>29</v>
       </c>
@@ -13170,7 +13961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="83">
         <v>30</v>
       </c>
@@ -13210,7 +14001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="83">
         <v>31</v>
       </c>
@@ -13250,7 +14041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="83">
         <v>32</v>
       </c>
@@ -13290,7 +14081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="83">
         <v>33</v>
       </c>
@@ -13330,7 +14121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="83">
         <v>34</v>
       </c>
@@ -13370,7 +14161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="83">
         <v>35</v>
       </c>
@@ -13410,7 +14201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="83">
         <v>36</v>
       </c>
@@ -13450,7 +14241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="83">
         <v>37</v>
       </c>
@@ -13490,7 +14281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="83">
         <v>38</v>
       </c>
@@ -13530,7 +14321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="83">
         <v>39</v>
       </c>
@@ -13570,7 +14361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="83">
         <v>40</v>
       </c>
@@ -13610,7 +14401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="83">
         <v>41</v>
       </c>
@@ -13650,7 +14441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="83">
         <v>42</v>
       </c>
@@ -13690,7 +14481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="83">
         <v>43</v>
       </c>
@@ -13730,7 +14521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="83">
         <v>44</v>
       </c>
@@ -13770,7 +14561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="83">
         <v>45</v>
       </c>
@@ -13810,7 +14601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="83">
         <v>46</v>
       </c>
@@ -13850,7 +14641,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="83">
         <v>47</v>
       </c>
@@ -13890,7 +14681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="83">
         <v>48</v>
       </c>
@@ -13930,7 +14721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="83">
         <v>49</v>
       </c>
@@ -13970,7 +14761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="83">
         <v>50</v>
       </c>
@@ -14010,7 +14801,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="83">
         <v>51</v>
       </c>
@@ -14050,7 +14841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="83">
         <v>52</v>
       </c>
@@ -14090,7 +14881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="83">
         <v>53</v>
       </c>
@@ -14130,7 +14921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="83">
         <v>54</v>
       </c>
@@ -14170,7 +14961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="83">
         <v>55</v>
       </c>
@@ -14210,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="83">
         <v>56</v>
       </c>
@@ -14250,7 +15041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="83">
         <v>57</v>
       </c>
@@ -14290,7 +15081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="83">
         <v>58</v>
       </c>
@@ -14330,7 +15121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="83">
         <v>59</v>
       </c>
@@ -14370,7 +15161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="83">
         <v>60</v>
       </c>
@@ -14410,7 +15201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="83">
         <v>61</v>
       </c>
@@ -14450,7 +15241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="83">
         <v>62</v>
       </c>
@@ -14490,7 +15281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="83">
         <v>63</v>
       </c>
@@ -14530,7 +15321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="83">
         <v>64</v>
       </c>
@@ -14570,7 +15361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="83">
         <v>65</v>
       </c>
@@ -14610,7 +15401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="83">
         <v>66</v>
       </c>
@@ -14650,7 +15441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="83">
         <v>67</v>
       </c>
@@ -14690,7 +15481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="83">
         <v>68</v>
       </c>
@@ -14730,7 +15521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="83">
         <v>69</v>
       </c>
@@ -14770,7 +15561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="83">
         <v>70</v>
       </c>
@@ -14810,7 +15601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="83">
         <v>71</v>
       </c>
@@ -14850,7 +15641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="83">
         <v>72</v>
       </c>
@@ -14890,7 +15681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="83">
         <v>73</v>
       </c>
@@ -14930,7 +15721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" s="83">
         <v>74</v>
       </c>
@@ -14970,7 +15761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" s="83">
         <v>75</v>
       </c>
@@ -15010,7 +15801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" s="83">
         <v>76</v>
       </c>
@@ -15050,7 +15841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="83">
         <v>77</v>
       </c>
@@ -15090,7 +15881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="83">
         <v>78</v>
       </c>
@@ -15130,7 +15921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="83">
         <v>79</v>
       </c>
@@ -15170,7 +15961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="83">
         <v>80</v>
       </c>
@@ -15210,7 +16001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" s="83">
         <v>81</v>
       </c>
@@ -15250,7 +16041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="83">
         <v>82</v>
       </c>
@@ -15290,7 +16081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" s="83">
         <v>83</v>
       </c>
@@ -15330,7 +16121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" s="83">
         <v>84</v>
       </c>
@@ -15370,7 +16161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" s="83">
         <v>85</v>
       </c>
@@ -15410,7 +16201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" s="83">
         <v>86</v>
       </c>
@@ -15450,7 +16241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" s="83">
         <v>87</v>
       </c>
@@ -15490,7 +16281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" s="83">
         <v>88</v>
       </c>
@@ -15530,7 +16321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" s="83">
         <v>89</v>
       </c>
@@ -15570,7 +16361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" s="83">
         <v>90</v>
       </c>
@@ -15610,7 +16401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" s="83">
         <v>91</v>
       </c>
@@ -15650,7 +16441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" s="83">
         <v>92</v>
       </c>
@@ -15690,7 +16481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" s="83">
         <v>93</v>
       </c>
@@ -15730,7 +16521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="83">
         <v>94</v>
       </c>
@@ -15770,7 +16561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" s="83">
         <v>95</v>
       </c>
@@ -15810,7 +16601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="83">
         <v>96</v>
       </c>
@@ -15850,7 +16641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="83">
         <v>97</v>
       </c>
@@ -15890,7 +16681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="83">
         <v>98</v>
       </c>
@@ -15930,7 +16721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="83">
         <v>99</v>
       </c>
@@ -15970,7 +16761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="83">
         <v>100</v>
       </c>
@@ -16010,7 +16801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102" s="83">
         <v>101</v>
       </c>
@@ -16050,7 +16841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103" s="83">
         <v>102</v>
       </c>
@@ -16090,7 +16881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104" s="83">
         <v>103</v>
       </c>
@@ -16130,7 +16921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105" s="83">
         <v>104</v>
       </c>
@@ -16170,7 +16961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106" s="83">
         <v>105</v>
       </c>
@@ -16210,7 +17001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" s="83">
         <v>106</v>
       </c>
@@ -16250,7 +17041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" s="83">
         <v>107</v>
       </c>
@@ -16290,7 +17081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="83">
         <v>108</v>
       </c>
@@ -16330,7 +17121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" s="83">
         <v>109</v>
       </c>
@@ -16370,7 +17161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111" s="83">
         <v>110</v>
       </c>
@@ -16410,7 +17201,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112" s="83">
         <v>111</v>
       </c>
@@ -16450,7 +17241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113" s="83">
         <v>112</v>
       </c>
@@ -16490,7 +17281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114" s="83">
         <v>113</v>
       </c>
@@ -16530,7 +17321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" s="83">
         <v>114</v>
       </c>
@@ -16570,7 +17361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" s="83">
         <v>115</v>
       </c>
@@ -16610,7 +17401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" s="83">
         <v>116</v>
       </c>
@@ -16650,7 +17441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118" s="83">
         <v>117</v>
       </c>
@@ -16690,7 +17481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119" s="83">
         <v>118</v>
       </c>
@@ -16730,7 +17521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120" s="83">
         <v>119</v>
       </c>
@@ -16770,7 +17561,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" s="83">
         <v>120</v>
       </c>
@@ -16810,7 +17601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" s="83">
         <v>121</v>
       </c>
@@ -16850,7 +17641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="83">
         <v>122</v>
       </c>
@@ -16890,7 +17681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="83">
         <v>123</v>
       </c>
@@ -16930,7 +17721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="83">
         <v>124</v>
       </c>
@@ -16970,7 +17761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="83">
         <v>125</v>
       </c>
@@ -17010,7 +17801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="83">
         <v>126</v>
       </c>
@@ -17050,7 +17841,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" s="83">
         <v>127</v>
       </c>
@@ -17090,7 +17881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="83">
         <v>128</v>
       </c>
@@ -17130,7 +17921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130" s="83">
         <v>129</v>
       </c>
@@ -17170,7 +17961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" s="83">
         <v>130</v>
       </c>
@@ -17210,7 +18001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" s="83">
         <v>131</v>
       </c>
@@ -17250,7 +18041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" s="83">
         <v>132</v>
       </c>
@@ -17290,7 +18081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" s="83">
         <v>133</v>
       </c>
@@ -17330,7 +18121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" s="83">
         <v>134</v>
       </c>
@@ -17370,7 +18161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" s="83">
         <v>135</v>
       </c>
@@ -17410,7 +18201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" s="83">
         <v>136</v>
       </c>
@@ -17450,7 +18241,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" s="83">
         <v>137</v>
       </c>
@@ -17490,7 +18281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139" s="83">
         <v>138</v>
       </c>
@@ -17530,7 +18321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" s="83">
         <v>139</v>
       </c>
@@ -17570,7 +18361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141" s="83">
         <v>140</v>
       </c>
@@ -17610,7 +18401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142" s="83">
         <v>141</v>
       </c>
@@ -17650,7 +18441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" s="83">
         <v>142</v>
       </c>
@@ -17690,7 +18481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" s="83">
         <v>143</v>
       </c>
@@ -17730,7 +18521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145" s="83">
         <v>144</v>
       </c>
@@ -17770,7 +18561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146" s="83">
         <v>145</v>
       </c>
@@ -17810,7 +18601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147" s="83">
         <v>146</v>
       </c>
@@ -17850,7 +18641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148" s="83">
         <v>147</v>
       </c>
@@ -17890,7 +18681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149" s="83">
         <v>148</v>
       </c>
@@ -17930,7 +18721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" s="83">
         <v>149</v>
       </c>
@@ -17970,7 +18761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="15" thickBot="1">
       <c r="A151" s="94">
         <v>150</v>
       </c>
@@ -18037,11 +18828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5927C5-9BC8-4DDF-8180-73F59C52F05C}">
   <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="5" width="8.88671875" style="12"/>
     <col min="6" max="6" width="9.6640625" style="12" customWidth="1"/>
@@ -18052,22 +18843,22 @@
     <col min="11" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="171" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1">
+      <c r="E2" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="H2" s="171" t="s">
+      <c r="F2" s="178"/>
+      <c r="H2" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="K2" s="171" t="s">
+      <c r="I2" s="178"/>
+      <c r="K2" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="172"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="178"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1">
       <c r="B3" s="103" t="s">
         <v>115</v>
       </c>
@@ -18105,7 +18896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="105">
         <v>1</v>
       </c>
@@ -18115,11 +18906,11 @@
       <c r="D4" s="107">
         <v>1</v>
       </c>
-      <c r="E4" s="176">
+      <c r="E4" s="168">
         <f>SQRT((C4-$C$12)^2 + (D4-$D$12)^2)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="179">
+      <c r="F4" s="171">
         <f>SQRT((C4-$C$13)^2 + (D4-$D$13)^2)</f>
         <v>7.2111025509279782</v>
       </c>
@@ -18127,11 +18918,11 @@
         <f>IF(E4&lt;=F4,"C1","C2")</f>
         <v>C1</v>
       </c>
-      <c r="H4" s="176">
+      <c r="H4" s="168">
         <f>SQRT((C4-$C$14)^2 + (D4-$D$14)^2)</f>
         <v>1.5723301886761007</v>
       </c>
-      <c r="I4" s="179">
+      <c r="I4" s="171">
         <f>SQRT((C4-$C$15)^2 + (D4-$D$15)^2)</f>
         <v>5.3764532919016421</v>
       </c>
@@ -18139,11 +18930,11 @@
         <f>IF(H4&lt;=I4,"C1","C2")</f>
         <v>C1</v>
       </c>
-      <c r="K4" s="176">
+      <c r="K4" s="168">
         <f>SQRT((C4-$C$16)^2+(D4-$D$16)^2)</f>
         <v>0.55901699437494745</v>
       </c>
-      <c r="L4" s="179">
+      <c r="L4" s="171">
         <f>SQRT((C4-$C$17)^2 + (D4-$D$17)^2)</f>
         <v>5.0219518117958879</v>
       </c>
@@ -18152,7 +18943,7 @@
         <v>C1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="15" thickBot="1">
       <c r="B5" s="105">
         <v>2</v>
       </c>
@@ -18162,11 +18953,11 @@
       <c r="D5" s="107">
         <v>2</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="169">
         <f t="shared" ref="E5:E10" si="0">SQRT((C5-$C$12)^2 + (D5-$D$12)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F5" s="182">
+      <c r="F5" s="172">
         <f t="shared" ref="F5:F10" si="1">SQRT((C5-$C$13)^2 + (D5-$D$13)^2)</f>
         <v>6.103277807866851</v>
       </c>
@@ -18174,11 +18965,11 @@
         <f t="shared" ref="G5:G10" si="2">IF(E5&lt;=F5,"C1","C2")</f>
         <v>C1</v>
       </c>
-      <c r="H5" s="178">
+      <c r="H5" s="170">
         <f t="shared" ref="H5:H10" si="3">SQRT((C5-$C$14)^2 + (D5-$D$14)^2)</f>
         <v>0.47140452079103173</v>
       </c>
-      <c r="I5" s="181">
+      <c r="I5" s="173">
         <f t="shared" ref="I5:I10" si="4">SQRT((C5-$C$15)^2 + (D5-$D$15)^2)</f>
         <v>4.2756578441217679</v>
       </c>
@@ -18186,11 +18977,11 @@
         <f t="shared" ref="J5:J10" si="5">IF(H5&lt;=I5,"C1","C2")</f>
         <v>C1</v>
       </c>
-      <c r="K5" s="178">
+      <c r="K5" s="170">
         <f t="shared" ref="K5:K10" si="6">SQRT((C5-$C$16)^2+(D5-$D$16)^2)</f>
         <v>0.55901699437494745</v>
       </c>
-      <c r="L5" s="181">
+      <c r="L5" s="173">
         <f t="shared" ref="L5:L10" si="7">SQRT((C5-$C$17)^2 + (D5-$D$17)^2)</f>
         <v>3.9204591567825315</v>
       </c>
@@ -18199,7 +18990,7 @@
         <v>C1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15" thickBot="1">
       <c r="B6" s="105">
         <v>3</v>
       </c>
@@ -18209,11 +19000,11 @@
       <c r="D6" s="107">
         <v>4</v>
       </c>
-      <c r="E6" s="178">
+      <c r="E6" s="170">
         <f t="shared" si="0"/>
         <v>3.6055512754639891</v>
       </c>
-      <c r="F6" s="181">
+      <c r="F6" s="173">
         <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
@@ -18221,11 +19012,11 @@
         <f t="shared" si="2"/>
         <v>C1</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="169">
         <f t="shared" si="3"/>
         <v>2.0344259359556172</v>
       </c>
-      <c r="I6" s="180">
+      <c r="I6" s="172">
         <f t="shared" si="4"/>
         <v>1.7765838004439869</v>
       </c>
@@ -18233,11 +19024,11 @@
         <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="169">
         <f t="shared" si="6"/>
         <v>3.0516389039334255</v>
       </c>
-      <c r="L6" s="180">
+      <c r="L6" s="172">
         <f t="shared" si="7"/>
         <v>1.4212670403551892</v>
       </c>
@@ -18246,7 +19037,7 @@
         <v>C2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="105">
         <v>4</v>
       </c>
@@ -18256,11 +19047,11 @@
       <c r="D7" s="107">
         <v>7</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="169">
         <f t="shared" si="0"/>
         <v>7.2111025509279782</v>
       </c>
-      <c r="F7" s="180">
+      <c r="F7" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18268,11 +19059,11 @@
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="169">
         <f t="shared" si="3"/>
         <v>5.6396414385628768</v>
       </c>
-      <c r="I7" s="180">
+      <c r="I7" s="172">
         <f t="shared" si="4"/>
         <v>1.845602882529175</v>
       </c>
@@ -18280,11 +19071,11 @@
         <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="K7" s="177">
+      <c r="K7" s="169">
         <f t="shared" si="6"/>
         <v>6.656763477847174</v>
       </c>
-      <c r="L7" s="180">
+      <c r="L7" s="172">
         <f t="shared" si="7"/>
         <v>2.1954498400100153</v>
       </c>
@@ -18293,7 +19084,7 @@
         <v>C2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="105">
         <v>5</v>
       </c>
@@ -18303,11 +19094,11 @@
       <c r="D8" s="107">
         <v>5</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="169">
         <f t="shared" si="0"/>
         <v>4.7169905660283016</v>
       </c>
-      <c r="F8" s="180">
+      <c r="F8" s="172">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -18315,11 +19106,11 @@
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="169">
         <f t="shared" si="3"/>
         <v>3.1446603773522015</v>
       </c>
-      <c r="I8" s="180">
+      <c r="I8" s="172">
         <f t="shared" si="4"/>
         <v>0.72886898685566259</v>
       </c>
@@ -18327,11 +19118,11 @@
         <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="K8" s="177">
+      <c r="K8" s="169">
         <f t="shared" si="6"/>
         <v>4.1608292442733097</v>
       </c>
-      <c r="L8" s="180">
+      <c r="L8" s="172">
         <f t="shared" si="7"/>
         <v>0.41231056256176585</v>
       </c>
@@ -18340,7 +19131,7 @@
         <v>C2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="105">
         <v>6</v>
       </c>
@@ -18350,11 +19141,11 @@
       <c r="D9" s="107">
         <v>5</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="169">
         <f t="shared" si="0"/>
         <v>5.315072906367325</v>
       </c>
-      <c r="F9" s="180">
+      <c r="F9" s="172">
         <f t="shared" si="1"/>
         <v>2.0615528128088303</v>
       </c>
@@ -18362,11 +19153,11 @@
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="169">
         <f t="shared" si="3"/>
         <v>3.7712361663282534</v>
       </c>
-      <c r="I9" s="180">
+      <c r="I9" s="172">
         <f t="shared" si="4"/>
         <v>0.5303300858899106</v>
       </c>
@@ -18374,11 +19165,11 @@
         <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="169">
         <f t="shared" si="6"/>
         <v>4.7762432936356998</v>
       </c>
-      <c r="L9" s="180">
+      <c r="L9" s="172">
         <f t="shared" si="7"/>
         <v>0.60827625302982202</v>
       </c>
@@ -18387,7 +19178,7 @@
         <v>C2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15" thickBot="1">
       <c r="B10" s="110">
         <v>7</v>
       </c>
@@ -18397,11 +19188,11 @@
       <c r="D10" s="112">
         <v>4.5</v>
       </c>
-      <c r="E10" s="178">
+      <c r="E10" s="170">
         <f t="shared" si="0"/>
         <v>4.3011626335213133</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="173">
         <f t="shared" si="1"/>
         <v>2.9154759474226504</v>
       </c>
@@ -18409,11 +19200,11 @@
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="H10" s="178">
+      <c r="H10" s="170">
         <f t="shared" si="3"/>
         <v>2.733536577809454</v>
       </c>
-      <c r="I10" s="181">
+      <c r="I10" s="173">
         <f t="shared" si="4"/>
         <v>1.0752906583803283</v>
       </c>
@@ -18421,11 +19212,11 @@
         <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="K10" s="178">
+      <c r="K10" s="170">
         <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
-      <c r="L10" s="181">
+      <c r="L10" s="173">
         <f t="shared" si="7"/>
         <v>0.72111025509279758</v>
       </c>
@@ -18434,8 +19225,8 @@
         <v>C2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="15" thickBot="1"/>
+    <row r="12" spans="2:13">
       <c r="B12" s="114" t="s">
         <v>148</v>
       </c>
@@ -18446,7 +19237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="15" thickBot="1">
       <c r="B13" s="32" t="s">
         <v>149</v>
       </c>
@@ -18457,7 +19248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="114" t="s">
         <v>150</v>
       </c>
@@ -18470,7 +19261,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="15" thickBot="1">
       <c r="B15" s="32" t="s">
         <v>151</v>
       </c>
@@ -18483,7 +19274,7 @@
         <v>5.375</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="114" t="s">
         <v>152</v>
       </c>
@@ -18496,7 +19287,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="15" thickBot="1">
       <c r="B17" s="32" t="s">
         <v>153</v>
       </c>
@@ -18509,13 +19300,13 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="173" t="s">
+    <row r="19" spans="2:6" ht="15" thickBot="1">
+      <c r="B19" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="173"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="179"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1">
       <c r="B20" s="119" t="s">
         <v>139</v>
       </c>
@@ -18532,7 +19323,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickBot="1">
       <c r="B21" s="122">
         <v>3</v>
       </c>
@@ -18571,11 +19362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CBDD3D-75CD-478C-AFD6-9628BDA926C8}">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView topLeftCell="C3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="8.5546875" style="12" bestFit="1" customWidth="1"/>
@@ -18589,22 +19380,22 @@
     <col min="17" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="174" t="s">
+    <row r="1" spans="2:19" ht="23.4">
+      <c r="B1" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-    </row>
-    <row r="2" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+    </row>
+    <row r="2" spans="2:19" ht="16.2" thickBot="1">
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -18613,7 +19404,7 @@
       <c r="G2" s="125"/>
       <c r="H2" s="125"/>
     </row>
-    <row r="3" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="16.2" thickBot="1">
       <c r="B3" s="125"/>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
@@ -18643,7 +19434,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="15.6">
       <c r="B4" s="125"/>
       <c r="C4" s="125"/>
       <c r="D4" s="125"/>
@@ -18673,7 +19464,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="15.6">
       <c r="B5" s="125"/>
       <c r="C5" s="125"/>
       <c r="D5" s="125"/>
@@ -18703,7 +19494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="15.6">
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
@@ -18733,7 +19524,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="15.6">
       <c r="B7" s="125"/>
       <c r="C7" s="125"/>
       <c r="D7" s="125"/>
@@ -18763,7 +19554,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="15.6">
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -18793,7 +19584,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="16.2" thickBot="1">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -18823,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="15.6">
       <c r="B10" s="125"/>
       <c r="C10" s="125"/>
       <c r="D10" s="125"/>
@@ -18832,7 +19623,7 @@
       <c r="G10" s="125"/>
       <c r="H10" s="125"/>
     </row>
-    <row r="11" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="16.2" thickBot="1">
       <c r="B11" s="125"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -18841,7 +19632,7 @@
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>
     </row>
-    <row r="12" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="16.2" thickBot="1">
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -18868,7 +19659,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="15.6">
       <c r="B13" s="125"/>
       <c r="C13" s="125"/>
       <c r="D13" s="125"/>
@@ -18895,7 +19686,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="15.6">
       <c r="B14" s="125"/>
       <c r="C14" s="125"/>
       <c r="D14" s="125"/>
@@ -18922,7 +19713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15.6">
       <c r="B15" s="125"/>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -18949,7 +19740,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="15.6">
       <c r="B16" s="125"/>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
@@ -18976,7 +19767,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" ht="16.2" thickBot="1">
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
@@ -19003,8 +19794,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="15" thickBot="1"/>
+    <row r="20" spans="2:18" ht="15" thickBot="1">
       <c r="C20" s="144" t="s">
         <v>138</v>
       </c>
@@ -19042,7 +19833,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="C21" s="148" t="s">
         <v>159</v>
       </c>
@@ -19080,7 +19871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="C22" s="152" t="s">
         <v>160</v>
       </c>
@@ -19118,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="C23" s="152" t="s">
         <v>166</v>
       </c>
@@ -19147,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="C24" s="152" t="s">
         <v>167</v>
       </c>
@@ -19164,32 +19955,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18">
       <c r="D26" s="167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18">
       <c r="D27" s="167" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18">
       <c r="D28" s="167" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="D29" s="167" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="D30" s="167" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="D31" s="167" t="s">
         <v>175</v>
       </c>
@@ -19205,4 +19996,955 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9516F252-28FC-4798-A752-27D59440DAC1}">
+  <dimension ref="B1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1">
+      <c r="C2" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="184"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1">
+      <c r="C3" s="185" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="186" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="187">
+        <v>0.99</v>
+      </c>
+      <c r="F3" s="188">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="188">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="188">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="188">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="189">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="186">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="103">
+        <v>0.97</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="190">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="191">
+        <f>IF($D4&gt;=E$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="192">
+        <f t="shared" ref="F4:K4" si="0">IF($D4&gt;=F$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="192">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="192">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="192">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="192">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="193">
+        <f>IF($D4&gt;=L$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="194">
+        <v>0</v>
+      </c>
+      <c r="D5" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="85">
+        <f t="shared" ref="E5:L14" si="1">IF($D5&gt;=E$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="194">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="194">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="193">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="194">
+        <v>0</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="193">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="194">
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" s="194">
+        <v>1</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="194">
+        <v>0</v>
+      </c>
+      <c r="D11" s="63">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="194">
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="12">
+        <v>10</v>
+      </c>
+      <c r="C13" s="194">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0.97</v>
+      </c>
+      <c r="E13" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="195">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="193">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1">
+      <c r="B14" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" s="196">
+        <v>0</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="197">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="198">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="198">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="198">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="198">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="198">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="C15" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="81">
+        <f>COUNTIFS($C$4:$C$14,0,E$4:E$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="199">
+        <f>COUNTIFS($C$4:$C$14,0,F$4:F$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G15" s="199">
+        <f t="shared" ref="G15:L15" si="2">COUNTIFS($C$4:$C$14,0,G$4:G$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H15" s="199">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I15" s="199">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="199">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="200">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="201">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1">
+      <c r="C16" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="202">
+        <f>COUNTIFS($C$4:$C$14,1,E$4:E$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="203">
+        <f t="shared" ref="F16:L16" si="3">COUNTIFS($C$4:$C$14,1,F$4:F$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="203">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="203">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="203">
+        <f>COUNTIFS($C$4:$C$14,1,I$4:I$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="204">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="205">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15" thickBot="1">
+      <c r="C17" s="206" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="207"/>
+      <c r="E17" s="208">
+        <f>E16-E15</f>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="209">
+        <f t="shared" ref="F17:L17" si="4">F16-F15</f>
+        <v>3.3333333333333354E-2</v>
+      </c>
+      <c r="G17" s="209">
+        <f t="shared" si="4"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H17" s="209">
+        <f t="shared" si="4"/>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="I17" s="209">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J17" s="210">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="211">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="212">
+        <f t="shared" si="4"/>
+        <v>0.23333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="215"/>
+    </row>
+    <row r="19" spans="3:12" ht="15" thickBot="1">
+      <c r="C19" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="216" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="D21" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="D22" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="D23" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="15" thickBot="1"/>
+    <row r="25" spans="3:12" ht="15" thickBot="1">
+      <c r="D25" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="220" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="221" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="222" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="220" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="223" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="224" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="D26" s="225">
+        <f>COUNTIFS($C$4:$C$14,0,E$4:E$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="226">
+        <f>D27</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F26" s="227">
+        <f>ABS(E26-D26)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G26" s="228">
+        <f>COUNTIFS($C$4:$C$14,1,E$4:E$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="226">
+        <f>G27</f>
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="229">
+        <f>ABS(H26-G26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="230">
+        <f>F26*G26+0.5*(F26*I26)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="D27" s="231">
+        <f>COUNTIFS($C$4:$C$14,0,F$4:F$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E27" s="232">
+        <f t="shared" ref="E27:E31" si="5">D28</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F27" s="233">
+        <f t="shared" ref="F27:F31" si="6">ABS(E27-D27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="234">
+        <f>COUNTIFS($C$4:$C$14,1,F$4:F$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="232">
+        <f>G28</f>
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="235">
+        <f t="shared" ref="I27:I31" si="7">ABS(H27-G27)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J27" s="236">
+        <f t="shared" ref="J27:J31" si="8">F27*G27+0.5*(F27*I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="D28" s="231">
+        <f>COUNTIFS($C$4:$C$14,0,G$4:G$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E28" s="232">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F28" s="233">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G28" s="234">
+        <f>COUNTIFS($C$4:$C$14,1,G$4:G$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H28" s="232">
+        <f t="shared" ref="H28:H31" si="9">G29</f>
+        <v>0.8</v>
+      </c>
+      <c r="I28" s="235">
+        <f t="shared" si="7"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="J28" s="236">
+        <f t="shared" si="8"/>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="D29" s="231">
+        <f>COUNTIFS($C$4:$C$14,0,H$4:H$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E29" s="232">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="233">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G29" s="234">
+        <f>COUNTIFS($C$4:$C$14,1,H$4:H$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="232">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="235">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="236">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="D30" s="231">
+        <f>COUNTIFS($C$4:$C$14,0,I$4:I$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="232">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="233">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="234">
+        <f>COUNTIFS($C$4:$C$14,1,I$4:I$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="232">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="235">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J30" s="236">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="15" thickBot="1">
+      <c r="D31" s="237">
+        <f>COUNTIFS($C$4:$C$14,0,J$4:J$14,1)/COUNTIF($C$4:$C$14,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="203">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="204">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="202">
+        <f>COUNTIFS($C$4:$C$14,1,J$4:J$14,1)/COUNTIF($C$4:$C$14,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="203">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="238">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="205">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="15" thickBot="1">
+      <c r="D32" s="107">
+        <v>1</v>
+      </c>
+      <c r="G32" s="107">
+        <v>1</v>
+      </c>
+      <c r="J32" s="239">
+        <f>SUM(J26:J31)</f>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>